--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>No</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>12. LONG-NECK Х-КПНв.5-500-12</t>
+  </si>
+  <si>
+    <t>fgdhdhgfh</t>
   </si>
 </sst>
 </file>
@@ -932,10 +935,10 @@
   <dimension ref="B4:AC192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="P27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1117,7 +1120,9 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="18"/>
-      <c r="P8" s="28"/>
+      <c r="P8" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="Q8" s="29"/>
       <c r="R8" s="29"/>
       <c r="S8" s="1"/>

--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>No</t>
   </si>
@@ -263,7 +263,22 @@
     <t>12. LONG-NECK Х-КПНв.5-500-12</t>
   </si>
   <si>
-    <t>fgdhdhgfh</t>
+    <t>Bottle Drawings\16. Хмель Х-КПНн-500-16</t>
+  </si>
+  <si>
+    <t>Maps Package\16. Хмель Х-КПНн-500-16</t>
+  </si>
+  <si>
+    <t>Eng Drawings\16. Хмель Х-КПНн-500-16</t>
+  </si>
+  <si>
+    <t>330±15</t>
+  </si>
+  <si>
+    <t>53±5</t>
+  </si>
+  <si>
+    <t>522±10</t>
   </si>
 </sst>
 </file>
@@ -935,10 +950,10 @@
   <dimension ref="B4:AC192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1120,9 +1135,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="18"/>
-      <c r="P8" s="28" t="s">
-        <v>76</v>
-      </c>
+      <c r="P8" s="28"/>
       <c r="Q8" s="29"/>
       <c r="R8" s="29"/>
       <c r="S8" s="1"/>
@@ -1484,14 +1497,30 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
+      <c r="K23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="R23" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
@@ -5202,8 +5231,11 @@
     <hyperlink ref="R6" r:id="rId5"/>
     <hyperlink ref="R7" r:id="rId6"/>
     <hyperlink ref="R29" r:id="rId7"/>
+    <hyperlink ref="P23" r:id="rId8"/>
+    <hyperlink ref="Q23" r:id="rId9"/>
+    <hyperlink ref="R23" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t>No</t>
   </si>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t>522±10</t>
+  </si>
+  <si>
+    <t>45±5</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\14. X-КПНв.2-500-14 NRW</t>
+  </si>
+  <si>
+    <t>Maps Package\14. X-КПНв.2-500-14 NRW</t>
+  </si>
+  <si>
+    <t>Eng Drawings\14. X-КПНв.2-500-14 NRW</t>
   </si>
 </sst>
 </file>
@@ -950,10 +962,10 @@
   <dimension ref="B4:AC192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1397,14 +1409,30 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
+      <c r="K19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="R19" s="29" t="s">
+        <v>85</v>
+      </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
@@ -5234,8 +5262,11 @@
     <hyperlink ref="P23" r:id="rId8"/>
     <hyperlink ref="Q23" r:id="rId9"/>
     <hyperlink ref="R23" r:id="rId10"/>
+    <hyperlink ref="P19" r:id="rId11"/>
+    <hyperlink ref="Q19" r:id="rId12"/>
+    <hyperlink ref="R19" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>No</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>Eng Drawings\14. X-КПНв.2-500-14 NRW</t>
+  </si>
+  <si>
+    <t>Eng Drawings\3. Х-КПНв.2-450-3 (EMERALD)</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\3. Х-ВКП-450-3 EMERALD</t>
   </si>
 </sst>
 </file>
@@ -965,7 +971,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1147,9 +1153,13 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="18"/>
-      <c r="P8" s="28"/>
+      <c r="P8" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
+      <c r="R8" s="29" t="s">
+        <v>86</v>
+      </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
@@ -5265,8 +5275,10 @@
     <hyperlink ref="P19" r:id="rId11"/>
     <hyperlink ref="Q19" r:id="rId12"/>
     <hyperlink ref="R19" r:id="rId13"/>
+    <hyperlink ref="R8" r:id="rId14"/>
+    <hyperlink ref="P8" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId14"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>No</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>Bottle Drawings\3. Х-ВКП-450-3 EMERALD</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\15. Златый базант Х-КПНн-500-15</t>
+  </si>
+  <si>
+    <t>Maps Package\15. Златый базант Х-КПНн-500-15</t>
+  </si>
+  <si>
+    <t>Eng Drawings\15. Златый базант Х-КПНн-500-15</t>
   </si>
 </sst>
 </file>
@@ -971,7 +980,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1490,9 +1499,15 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="18"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
+      <c r="P21" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="R21" s="29" t="s">
+        <v>90</v>
+      </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
@@ -5277,8 +5292,11 @@
     <hyperlink ref="R19" r:id="rId13"/>
     <hyperlink ref="R8" r:id="rId14"/>
     <hyperlink ref="P8" r:id="rId15"/>
+    <hyperlink ref="P21" r:id="rId16"/>
+    <hyperlink ref="Q21" r:id="rId17"/>
+    <hyperlink ref="R21" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId16"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
   <si>
     <t>No</t>
   </si>
@@ -306,6 +306,27 @@
   </si>
   <si>
     <t>Eng Drawings\15. Златый базант Х-КПНн-500-15</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\29. ЛОНГ-НЕК ALIVA Х-КПНв.4-500-29</t>
+  </si>
+  <si>
+    <t>Maps Package\29. ЛОНГ-НЕК ALIVA Х-КПНв.4-500-29</t>
+  </si>
+  <si>
+    <t>Eng Drawings\29. ЛОНГ-НЕК ALIVA Х-КПНв.4-500-29</t>
+  </si>
+  <si>
+    <t>355±15</t>
+  </si>
+  <si>
+    <t>54±5</t>
+  </si>
+  <si>
+    <t>519±10</t>
+  </si>
+  <si>
+    <t>Венчик КПНв.4 ТУ BY 810000071.001-2009</t>
   </si>
 </sst>
 </file>
@@ -974,13 +995,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:AC192"/>
+  <dimension ref="B4:AC194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
+      <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1629,7 +1650,7 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>67</v>
@@ -1678,12 +1699,8 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="7">
-        <v>22</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -1704,10 +1721,10 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -1716,39 +1733,23 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O29" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="P29" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q29" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="R29" s="29" t="s">
-        <v>45</v>
-      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -1757,95 +1758,111 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
+      <c r="K30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="R30" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" s="7">
-        <v>25</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>62</v>
+        <v>24</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="9">
-        <v>85.7</v>
-      </c>
-      <c r="G31" s="9">
-        <v>66.7</v>
-      </c>
-      <c r="H31" s="9">
-        <v>2101200016</v>
-      </c>
-      <c r="I31" s="9">
-        <v>92.1</v>
-      </c>
-      <c r="J31" s="9">
-        <v>2101200097</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="9">
-        <v>54.5</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="7">
-        <v>26</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>61</v>
+        <v>25</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
+      <c r="E32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="9">
+        <v>85.7</v>
+      </c>
+      <c r="G32" s="9">
+        <v>66.7</v>
+      </c>
+      <c r="H32" s="9">
+        <v>2101200016</v>
+      </c>
+      <c r="I32" s="9">
+        <v>92.1</v>
+      </c>
+      <c r="J32" s="9">
+        <v>2101200097</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="9">
+        <v>54.5</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -1867,11 +1884,9 @@
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="7">
-        <v>28</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>59</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C34" s="8"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -1892,10 +1907,10 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -1917,10 +1932,10 @@
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -1929,23 +1944,39 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
+      <c r="K36" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O36" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="P36" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q36" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="R36" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -1967,10 +1998,10 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -1992,10 +2023,10 @@
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -2017,10 +2048,10 @@
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -2042,10 +2073,10 @@
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -2067,10 +2098,10 @@
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -2092,7 +2123,10 @@
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" s="7">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -2114,33 +2148,19 @@
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B44" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="9">
-        <v>85.7</v>
-      </c>
-      <c r="G44" s="9">
-        <v>66.7</v>
-      </c>
-      <c r="H44" s="9">
-        <v>2101200016</v>
-      </c>
-      <c r="I44" s="9">
-        <v>92.1</v>
-      </c>
-      <c r="J44" s="9">
-        <v>2101200097</v>
-      </c>
-      <c r="K44" s="9">
-        <v>320</v>
-      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -2153,10 +2173,7 @@
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45" s="7">
-        <v>40</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -2178,19 +2195,33 @@
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
+      <c r="E46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="9">
+        <v>85.7</v>
+      </c>
+      <c r="G46" s="9">
+        <v>66.7</v>
+      </c>
+      <c r="H46" s="9">
+        <v>2101200016</v>
+      </c>
+      <c r="I46" s="9">
+        <v>92.1</v>
+      </c>
+      <c r="J46" s="9">
+        <v>2101200097</v>
+      </c>
+      <c r="K46" s="9">
+        <v>320</v>
+      </c>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -2203,10 +2234,10 @@
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B47" s="7">
-        <v>42</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -2228,10 +2259,10 @@
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B48" s="7">
-        <v>43</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -2252,8 +2283,12 @@
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B49" s="7"/>
-      <c r="C49" s="9"/>
+      <c r="B49" s="7">
+        <v>42</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -2273,8 +2308,12 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B50" s="7"/>
-      <c r="C50" s="9"/>
+      <c r="B50" s="7">
+        <v>43</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -2692,66 +2731,66 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="11"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B70" s="7"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="20"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="20"/>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="20"/>
+    <row r="72" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="11"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
@@ -4261,9 +4300,9 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
-      <c r="P144" s="1"/>
-      <c r="Q144" s="1"/>
-      <c r="R144" s="1"/>
+      <c r="P144" s="20"/>
+      <c r="Q144" s="20"/>
+      <c r="R144" s="20"/>
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
@@ -4282,9 +4321,9 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
-      <c r="P145" s="1"/>
-      <c r="Q145" s="1"/>
-      <c r="R145" s="1"/>
+      <c r="P145" s="20"/>
+      <c r="Q145" s="20"/>
+      <c r="R145" s="20"/>
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
@@ -5275,15 +5314,57 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
+    <row r="193" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
+      <c r="T193" s="1"/>
+    </row>
+    <row r="194" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P6" r:id="rId1"/>
     <hyperlink ref="P7" r:id="rId2"/>
-    <hyperlink ref="P29" r:id="rId3"/>
-    <hyperlink ref="Q29" r:id="rId4"/>
+    <hyperlink ref="P30" r:id="rId3"/>
+    <hyperlink ref="Q30" r:id="rId4"/>
     <hyperlink ref="R6" r:id="rId5"/>
     <hyperlink ref="R7" r:id="rId6"/>
-    <hyperlink ref="R29" r:id="rId7"/>
+    <hyperlink ref="R30" r:id="rId7"/>
     <hyperlink ref="P23" r:id="rId8"/>
     <hyperlink ref="Q23" r:id="rId9"/>
     <hyperlink ref="R23" r:id="rId10"/>
@@ -5295,8 +5376,11 @@
     <hyperlink ref="P21" r:id="rId16"/>
     <hyperlink ref="Q21" r:id="rId17"/>
     <hyperlink ref="R21" r:id="rId18"/>
+    <hyperlink ref="P36" r:id="rId19"/>
+    <hyperlink ref="Q36" r:id="rId20"/>
+    <hyperlink ref="R36" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId19"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId22"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
   <si>
     <t>No</t>
   </si>
@@ -327,6 +327,21 @@
   </si>
   <si>
     <t>Венчик КПНв.4 ТУ BY 810000071.001-2009</t>
+  </si>
+  <si>
+    <t>320±15</t>
+  </si>
+  <si>
+    <t>70±5</t>
+  </si>
+  <si>
+    <t>450±10</t>
+  </si>
+  <si>
+    <t>477±10</t>
+  </si>
+  <si>
+    <t>Maps Package\3. Х-ВКП-450-3 EMERALD</t>
   </si>
 </sst>
 </file>
@@ -367,7 +382,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -586,12 +601,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -678,6 +704,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -998,10 +1027,10 @@
   <dimension ref="B4:AC194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1151,7 +1180,7 @@
       <c r="N7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="P7" s="28" t="s">
@@ -1178,15 +1207,27 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="18"/>
+      <c r="K8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>13</v>
+      </c>
       <c r="P8" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="Q8" s="29"/>
+      <c r="Q8" s="29" t="s">
+        <v>102</v>
+      </c>
       <c r="R8" s="29" t="s">
         <v>86</v>
       </c>
@@ -5379,8 +5420,9 @@
     <hyperlink ref="P36" r:id="rId19"/>
     <hyperlink ref="Q36" r:id="rId20"/>
     <hyperlink ref="R36" r:id="rId21"/>
+    <hyperlink ref="Q8" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId22"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId23"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
   <si>
     <t>No</t>
   </si>
@@ -342,6 +342,15 @@
   </si>
   <si>
     <t>Maps Package\3. Х-ВКП-450-3 EMERALD</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\22. Х-КПНн-500-22 Amber</t>
+  </si>
+  <si>
+    <t>Maps Package\22. Х-КПНн-500-22 Amber</t>
+  </si>
+  <si>
+    <t>Eng Drawings\22. Х-КПНн-500-22 Amber</t>
   </si>
 </sst>
 </file>
@@ -1027,10 +1036,10 @@
   <dimension ref="B4:AC194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1774,14 +1783,30 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
+      <c r="K29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q29" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="R29" s="29" t="s">
+        <v>105</v>
+      </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
@@ -5421,8 +5446,11 @@
     <hyperlink ref="Q36" r:id="rId20"/>
     <hyperlink ref="R36" r:id="rId21"/>
     <hyperlink ref="Q8" r:id="rId22"/>
+    <hyperlink ref="P29" r:id="rId23"/>
+    <hyperlink ref="Q29" r:id="rId24"/>
+    <hyperlink ref="R29" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId23"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId26"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="113">
   <si>
     <t>No</t>
   </si>
@@ -351,6 +351,27 @@
   </si>
   <si>
     <t>Eng Drawings\22. Х-КПНн-500-22 Amber</t>
+  </si>
+  <si>
+    <t>Венчик КПНв.5 ТУ BY 810000071.001-2009</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\4. Х-КПВ.5-500-4 (Slavutich)</t>
+  </si>
+  <si>
+    <t>Maps Package\4. Х-КПНв.5-500-4 Slavutich</t>
+  </si>
+  <si>
+    <t>Eng Drawings\4. Х-КПНв.5-500-4 Slavutich</t>
+  </si>
+  <si>
+    <t>345±15</t>
+  </si>
+  <si>
+    <t>48±5</t>
+  </si>
+  <si>
+    <t>516±10</t>
   </si>
 </sst>
 </file>
@@ -1036,10 +1057,10 @@
   <dimension ref="B4:AC194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1257,14 +1278,30 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
+      <c r="K9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>109</v>
+      </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
@@ -5449,8 +5486,11 @@
     <hyperlink ref="P29" r:id="rId23"/>
     <hyperlink ref="Q29" r:id="rId24"/>
     <hyperlink ref="R29" r:id="rId25"/>
+    <hyperlink ref="P9" r:id="rId26"/>
+    <hyperlink ref="Q9" r:id="rId27"/>
+    <hyperlink ref="R9" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId26"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId29"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="124">
   <si>
     <t>No</t>
   </si>
@@ -372,6 +372,39 @@
   </si>
   <si>
     <t>516±10</t>
+  </si>
+  <si>
+    <t>X-KПНв.3-440-2 (Kof)</t>
+  </si>
+  <si>
+    <t>60±5</t>
+  </si>
+  <si>
+    <t>440±10</t>
+  </si>
+  <si>
+    <t>466±10</t>
+  </si>
+  <si>
+    <t>Венчик КПНв.3 ТУ BY 810000071.001-2009</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\2. Х-КПНв.3-440-2 Kof</t>
+  </si>
+  <si>
+    <t>Maps Package\2. Х-КПНв.3-440-2 Kof</t>
+  </si>
+  <si>
+    <t>Eng Drawings\2. Х-КПНв.3-440-2 (Kof)</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\18. DESANT Х-КПНв.2-500-18</t>
+  </si>
+  <si>
+    <t>Maps Package\18. DESANT Х-КПНв.2-500-18</t>
+  </si>
+  <si>
+    <t>Eng Drawings\18. DESANT Х-КПНв.2-500-18</t>
   </si>
 </sst>
 </file>
@@ -412,7 +445,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -642,12 +675,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -737,6 +796,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1054,13 +1128,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:AC194"/>
+  <dimension ref="B4:AC195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1185,50 +1259,54 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="7">
+      <c r="B7" s="31">
+        <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="C7" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
       <c r="K7" s="9" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29" t="s">
-        <v>43</v>
+        <v>116</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q7" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="R7" s="35" t="s">
+        <v>120</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="7">
+      <c r="B8" s="31">
+        <f t="shared" ref="B8:B51" si="0">B7+1</f>
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -1238,38 +1316,37 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q8" s="29" t="s">
-        <v>102</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="Q8" s="29"/>
       <c r="R8" s="29" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="7">
+      <c r="B9" s="31">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -1279,38 +1356,39 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="O9" s="25" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="R9" s="29" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="7">
+      <c r="B10" s="31">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1319,22 +1397,41 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
+      <c r="K10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>109</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="7">
+      <c r="B11" s="31">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -1347,19 +1444,18 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="18"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="7">
+      <c r="B12" s="31">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1379,11 +1475,12 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B13" s="7">
+      <c r="B13" s="31">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -1404,11 +1501,12 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="7">
+      <c r="B14" s="31">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1429,11 +1527,12 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="7">
+      <c r="B15" s="31">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -1454,8 +1553,12 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="7">
+      <c r="B16" s="31">
+        <f t="shared" si="0"/>
         <v>11</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -1476,11 +1579,9 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="7">
+      <c r="B17" s="31">
+        <f t="shared" si="0"/>
         <v>12</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -1501,8 +1602,12 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="7">
+      <c r="B18" s="31">
+        <f t="shared" si="0"/>
         <v>13</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -1523,11 +1628,9 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="7">
+      <c r="B19" s="31">
+        <f t="shared" si="0"/>
         <v>14</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -1536,39 +1639,24 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q19" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="R19" s="29" t="s">
-        <v>85</v>
-      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="7">
+      <c r="B20" s="31">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -1577,23 +1665,40 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
+      <c r="K20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>85</v>
+      </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="7">
-        <v>15</v>
+      <c r="B21" s="31">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -1607,24 +1712,19 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="18"/>
-      <c r="P21" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q21" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="R21" s="29" t="s">
-        <v>90</v>
-      </c>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="7">
-        <v>16</v>
+      <c r="B22" s="31">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -1638,18 +1738,25 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="18"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
+      <c r="P22" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="R22" s="29" t="s">
+        <v>90</v>
+      </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="7">
-        <v>16</v>
+      <c r="B23" s="31">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -1658,39 +1765,24 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="O23" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P23" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q23" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="R23" s="29" t="s">
-        <v>78</v>
-      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="7">
-        <v>17</v>
+      <c r="B24" s="31">
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -1699,23 +1791,40 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
+      <c r="K24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="7">
-        <v>18</v>
+      <c r="B25" s="31">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -1736,11 +1845,12 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="7">
-        <v>19</v>
+      <c r="B26" s="31">
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -1749,23 +1859,40 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
+      <c r="K26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="R26" s="29" t="s">
+        <v>123</v>
+      </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="7">
-        <v>20</v>
+      <c r="B27" s="31">
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -1786,8 +1913,13 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
+      <c r="B28" s="31">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -1807,12 +1939,11 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="7">
-        <v>22</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="B29" s="31">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -1820,39 +1951,24 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O29" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P29" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q29" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="R29" s="29" t="s">
-        <v>105</v>
-      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="7">
-        <v>23</v>
+      <c r="B30" s="31">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -1873,27 +1989,28 @@
       <c r="N30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="25" t="s">
-        <v>32</v>
+      <c r="O30" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="P30" s="28" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="Q30" s="29" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="R30" s="29" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="7">
-        <v>24</v>
+      <c r="B31" s="31">
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -1902,94 +2019,115 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
+      <c r="K31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="R31" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="7">
-        <v>25</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>62</v>
+      <c r="B32" s="31">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="9">
-        <v>85.7</v>
-      </c>
-      <c r="G32" s="9">
-        <v>66.7</v>
-      </c>
-      <c r="H32" s="9">
-        <v>2101200016</v>
-      </c>
-      <c r="I32" s="9">
-        <v>92.1</v>
-      </c>
-      <c r="J32" s="9">
-        <v>2101200097</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="9">
-        <v>54.5</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="7">
-        <v>26</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>61</v>
+      <c r="B33" s="31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
+      <c r="E33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="9">
+        <v>85.7</v>
+      </c>
+      <c r="G33" s="9">
+        <v>66.7</v>
+      </c>
+      <c r="H33" s="9">
+        <v>2101200016</v>
+      </c>
+      <c r="I33" s="9">
+        <v>92.1</v>
+      </c>
+      <c r="J33" s="9">
+        <v>2101200097</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="9">
+        <v>54.5</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="7">
-        <v>27</v>
-      </c>
-      <c r="C34" s="8"/>
+      <c r="B34" s="31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -2009,12 +2147,11 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="7">
-        <v>28</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="B35" s="31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -2034,11 +2171,12 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="7">
-        <v>29</v>
+      <c r="B36" s="31">
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -2047,39 +2185,24 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O36" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="P36" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q36" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="R36" s="29" t="s">
-        <v>93</v>
-      </c>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="7">
-        <v>30</v>
+      <c r="B37" s="31">
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -2088,23 +2211,40 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
+      <c r="K37" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O37" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="P37" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q37" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="R37" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="7">
-        <v>31</v>
+      <c r="B38" s="31">
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -2125,11 +2265,12 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="7">
-        <v>32</v>
+      <c r="B39" s="31">
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -2150,11 +2291,12 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="7">
-        <v>33</v>
+      <c r="B40" s="31">
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -2175,11 +2317,12 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="7">
-        <v>34</v>
+      <c r="B41" s="31">
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -2200,11 +2343,12 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="7">
-        <v>35</v>
+      <c r="B42" s="31">
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -2225,11 +2369,12 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="7">
-        <v>36</v>
+      <c r="B43" s="31">
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -2250,11 +2395,12 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="7">
-        <v>37</v>
+      <c r="B44" s="31">
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -2275,8 +2421,12 @@
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="7">
-        <v>38</v>
+      <c r="B45" s="31">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -2297,34 +2447,18 @@
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="7">
-        <v>39</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>50</v>
+      <c r="B46" s="31">
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="9">
-        <v>85.7</v>
-      </c>
-      <c r="G46" s="9">
-        <v>66.7</v>
-      </c>
-      <c r="H46" s="9">
-        <v>2101200016</v>
-      </c>
-      <c r="I46" s="9">
-        <v>92.1</v>
-      </c>
-      <c r="J46" s="9">
-        <v>2101200097</v>
-      </c>
-      <c r="K46" s="9">
-        <v>320</v>
-      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -2336,20 +2470,35 @@
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="7">
-        <v>40</v>
+      <c r="B47" s="31">
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="9">
+        <v>85.7</v>
+      </c>
+      <c r="G47" s="9">
+        <v>66.7</v>
+      </c>
+      <c r="H47" s="9">
+        <v>2101200016</v>
+      </c>
+      <c r="I47" s="9">
+        <v>92.1</v>
+      </c>
+      <c r="J47" s="9">
+        <v>2101200097</v>
+      </c>
+      <c r="K47" s="9">
+        <v>320</v>
+      </c>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -2361,11 +2510,12 @@
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="7">
-        <v>41</v>
+      <c r="B48" s="31">
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -2386,11 +2536,12 @@
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B49" s="7">
-        <v>42</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>47</v>
+      <c r="B49" s="31">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -2411,11 +2562,12 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B50" s="7">
-        <v>43</v>
+      <c r="B50" s="31">
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -2436,8 +2588,13 @@
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B51" s="7"/>
-      <c r="C51" s="9"/>
+      <c r="B51" s="31">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -2876,45 +3033,45 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="11"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B72" s="7"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="20"/>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="20"/>
+    <row r="73" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="11"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
@@ -4445,9 +4602,9 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
-      <c r="Q146" s="1"/>
-      <c r="R146" s="1"/>
+      <c r="P146" s="20"/>
+      <c r="Q146" s="20"/>
+      <c r="R146" s="20"/>
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
@@ -5459,38 +5616,65 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
+    <row r="195" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="S195" s="1"/>
+      <c r="T195" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P6" r:id="rId1"/>
-    <hyperlink ref="P7" r:id="rId2"/>
-    <hyperlink ref="P30" r:id="rId3"/>
-    <hyperlink ref="Q30" r:id="rId4"/>
+    <hyperlink ref="P8" r:id="rId2"/>
+    <hyperlink ref="P31" r:id="rId3"/>
+    <hyperlink ref="Q31" r:id="rId4"/>
     <hyperlink ref="R6" r:id="rId5"/>
-    <hyperlink ref="R7" r:id="rId6"/>
-    <hyperlink ref="R30" r:id="rId7"/>
-    <hyperlink ref="P23" r:id="rId8"/>
-    <hyperlink ref="Q23" r:id="rId9"/>
-    <hyperlink ref="R23" r:id="rId10"/>
-    <hyperlink ref="P19" r:id="rId11"/>
-    <hyperlink ref="Q19" r:id="rId12"/>
-    <hyperlink ref="R19" r:id="rId13"/>
-    <hyperlink ref="R8" r:id="rId14"/>
-    <hyperlink ref="P8" r:id="rId15"/>
-    <hyperlink ref="P21" r:id="rId16"/>
-    <hyperlink ref="Q21" r:id="rId17"/>
-    <hyperlink ref="R21" r:id="rId18"/>
-    <hyperlink ref="P36" r:id="rId19"/>
-    <hyperlink ref="Q36" r:id="rId20"/>
-    <hyperlink ref="R36" r:id="rId21"/>
-    <hyperlink ref="Q8" r:id="rId22"/>
-    <hyperlink ref="P29" r:id="rId23"/>
-    <hyperlink ref="Q29" r:id="rId24"/>
-    <hyperlink ref="R29" r:id="rId25"/>
-    <hyperlink ref="P9" r:id="rId26"/>
-    <hyperlink ref="Q9" r:id="rId27"/>
-    <hyperlink ref="R9" r:id="rId28"/>
+    <hyperlink ref="R8" r:id="rId6"/>
+    <hyperlink ref="R31" r:id="rId7"/>
+    <hyperlink ref="P24" r:id="rId8"/>
+    <hyperlink ref="Q24" r:id="rId9"/>
+    <hyperlink ref="R24" r:id="rId10"/>
+    <hyperlink ref="P20" r:id="rId11"/>
+    <hyperlink ref="Q20" r:id="rId12"/>
+    <hyperlink ref="R20" r:id="rId13"/>
+    <hyperlink ref="R9" r:id="rId14"/>
+    <hyperlink ref="P9" r:id="rId15"/>
+    <hyperlink ref="P22" r:id="rId16"/>
+    <hyperlink ref="Q22" r:id="rId17"/>
+    <hyperlink ref="R22" r:id="rId18"/>
+    <hyperlink ref="P37" r:id="rId19"/>
+    <hyperlink ref="Q37" r:id="rId20"/>
+    <hyperlink ref="R37" r:id="rId21"/>
+    <hyperlink ref="Q9" r:id="rId22"/>
+    <hyperlink ref="P30" r:id="rId23"/>
+    <hyperlink ref="Q30" r:id="rId24"/>
+    <hyperlink ref="R30" r:id="rId25"/>
+    <hyperlink ref="P10" r:id="rId26"/>
+    <hyperlink ref="Q10" r:id="rId27"/>
+    <hyperlink ref="R10" r:id="rId28"/>
+    <hyperlink ref="P7" r:id="rId29"/>
+    <hyperlink ref="Q7" r:id="rId30"/>
+    <hyperlink ref="R7" r:id="rId31"/>
+    <hyperlink ref="P26" r:id="rId32"/>
+    <hyperlink ref="Q26" r:id="rId33"/>
+    <hyperlink ref="R26" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId29"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId35"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="129">
   <si>
     <t>No</t>
   </si>
@@ -405,6 +405,21 @@
   </si>
   <si>
     <t>Eng Drawings\18. DESANT Х-КПНв.2-500-18</t>
+  </si>
+  <si>
+    <t>50±5</t>
+  </si>
+  <si>
+    <t>517±10</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\10. Х-КПНв.3-500-10 Special</t>
+  </si>
+  <si>
+    <t>Maps Package\10. Х-КПНв.3-500-10 Special</t>
+  </si>
+  <si>
+    <t>Eng Drawings\10. Х-КПНв.3-500-10 Special</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1149,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1567,14 +1582,30 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
+      <c r="K16" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
@@ -5673,8 +5704,11 @@
     <hyperlink ref="P26" r:id="rId32"/>
     <hyperlink ref="Q26" r:id="rId33"/>
     <hyperlink ref="R26" r:id="rId34"/>
+    <hyperlink ref="P16" r:id="rId35"/>
+    <hyperlink ref="Q16" r:id="rId36"/>
+    <hyperlink ref="R16" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId35"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId38"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="141">
   <si>
     <t>No</t>
   </si>
@@ -420,6 +420,42 @@
   </si>
   <si>
     <t>Eng Drawings\10. Х-КПНв.3-500-10 Special</t>
+  </si>
+  <si>
+    <t>Венчик К ГОСТ 10117.2-2001</t>
+  </si>
+  <si>
+    <t>420±15</t>
+  </si>
+  <si>
+    <t>60±10</t>
+  </si>
+  <si>
+    <t>700±10</t>
+  </si>
+  <si>
+    <t>725±10</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\33. Х-К-700-33 GRAPE</t>
+  </si>
+  <si>
+    <t>Maps Package\33. Х-К-700-33 GRAPE</t>
+  </si>
+  <si>
+    <t>Eng Drawings\33. Х-К-700-33 GRAPE</t>
+  </si>
+  <si>
+    <t>Венчик В-28-1 ГОСТ 10117.2-2001</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\37. X-B-28-1-700-37 GRAPE twist</t>
+  </si>
+  <si>
+    <t>Maps Package\37. X-B-28-1-700-37 GRAPE twist</t>
+  </si>
+  <si>
+    <t>Eng Drawings\37. X-B-28-1-700-37 GRAPE twist</t>
   </si>
 </sst>
 </file>
@@ -1146,10 +1182,10 @@
   <dimension ref="B4:AC195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="P33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
+      <selection pane="bottomRight" activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2362,14 +2398,30 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
+      <c r="K41" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O41" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="P41" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q41" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="R41" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
@@ -2466,14 +2518,30 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
+      <c r="K45" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O45" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="P45" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q45" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="R45" s="29" t="s">
+        <v>140</v>
+      </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
@@ -5707,8 +5775,14 @@
     <hyperlink ref="P16" r:id="rId35"/>
     <hyperlink ref="Q16" r:id="rId36"/>
     <hyperlink ref="R16" r:id="rId37"/>
+    <hyperlink ref="P41" r:id="rId38"/>
+    <hyperlink ref="Q41" r:id="rId39"/>
+    <hyperlink ref="R41" r:id="rId40"/>
+    <hyperlink ref="P45" r:id="rId41"/>
+    <hyperlink ref="Q45" r:id="rId42"/>
+    <hyperlink ref="R45" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId38"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId44"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="144">
   <si>
     <t>No</t>
   </si>
@@ -456,6 +456,15 @@
   </si>
   <si>
     <t>Eng Drawings\37. X-B-28-1-700-37 GRAPE twist</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\7. Х-КПНв.2-500-7 Варшава</t>
+  </si>
+  <si>
+    <t>Maps Package\7. Х-КПНв.2-500-7 Варшава</t>
+  </si>
+  <si>
+    <t>Eng Drawings\7. Х-КПНв.2-500-7 Варшава</t>
   </si>
 </sst>
 </file>
@@ -1182,10 +1191,10 @@
   <dimension ref="B4:AC195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="P33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R45" sqref="R45"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1506,7 +1515,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1514,14 +1525,30 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
+      <c r="K12" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>143</v>
+      </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
@@ -1530,9 +1557,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1544,10 +1569,10 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
@@ -5781,8 +5806,11 @@
     <hyperlink ref="P45" r:id="rId41"/>
     <hyperlink ref="Q45" r:id="rId42"/>
     <hyperlink ref="R45" r:id="rId43"/>
+    <hyperlink ref="P12" r:id="rId44"/>
+    <hyperlink ref="Q12" r:id="rId45"/>
+    <hyperlink ref="R12" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId44"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId47"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="148">
   <si>
     <t>No</t>
   </si>
@@ -465,6 +465,18 @@
   </si>
   <si>
     <t>Eng Drawings\7. Х-КПНв.2-500-7 Варшава</t>
+  </si>
+  <si>
+    <t>Х-КПНв.5-500-6 (Як для себе)</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\6. Х-КПНв.2-500-6 (Як для себе)</t>
+  </si>
+  <si>
+    <t>Maps Package\6. Х-КПНв.5-500-6 (Як для себе)</t>
+  </si>
+  <si>
+    <t>320±10</t>
   </si>
 </sst>
 </file>
@@ -1188,13 +1200,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:AC195"/>
+  <dimension ref="B4:AC196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13:R13"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1362,7 +1374,7 @@
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B8" s="31">
-        <f t="shared" ref="B8:B51" si="0">B7+1</f>
+        <f t="shared" ref="B8:B52" si="0">B7+1</f>
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1516,7 +1528,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1526,10 +1538,10 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>27</v>
@@ -1538,17 +1550,15 @@
         <v>28</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q12" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="R12" s="29" t="s">
-        <v>143</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="R12" s="29"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
@@ -1557,7 +1567,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1565,14 +1577,30 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
+      <c r="K13" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>143</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
@@ -1581,9 +1609,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1595,10 +1621,10 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
@@ -1608,7 +1634,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -1634,7 +1660,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -1643,30 +1669,14 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="O16" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="P16" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q16" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="R16" s="29" t="s">
-        <v>128</v>
-      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
@@ -1674,6 +1684,9 @@
       <c r="B17" s="31">
         <f t="shared" si="0"/>
         <v>12</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -1682,14 +1695,30 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
+      <c r="K17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
@@ -1697,9 +1726,6 @@
       <c r="B18" s="31">
         <f t="shared" si="0"/>
         <v>13</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -1724,6 +1750,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="C19" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -1747,9 +1776,6 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -1757,30 +1783,14 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="P20" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q20" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="R20" s="29" t="s">
-        <v>85</v>
-      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
@@ -1790,7 +1800,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -1799,14 +1809,30 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
+      <c r="K21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="R21" s="29" t="s">
+        <v>85</v>
+      </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
@@ -1816,7 +1842,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -1830,15 +1856,9 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="18"/>
-      <c r="P22" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q22" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="R22" s="29" t="s">
-        <v>90</v>
-      </c>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
@@ -1848,7 +1868,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -1862,9 +1882,15 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="18"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
+      <c r="P23" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="R23" s="29" t="s">
+        <v>90</v>
+      </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
@@ -1874,7 +1900,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -1883,30 +1909,14 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="O24" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P24" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q24" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="R24" s="29" t="s">
-        <v>78</v>
-      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
@@ -1916,7 +1926,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -1925,14 +1935,30 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
+      <c r="K25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
@@ -1942,7 +1968,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -1951,30 +1977,14 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O26" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="P26" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q26" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="R26" s="29" t="s">
-        <v>123</v>
-      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
@@ -1984,7 +1994,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -1993,14 +2003,30 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
+      <c r="K27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q27" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="R27" s="29" t="s">
+        <v>123</v>
+      </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
@@ -2010,7 +2036,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -2035,7 +2061,9 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -2059,9 +2087,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -2069,30 +2095,14 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O30" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P30" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q30" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="R30" s="29" t="s">
-        <v>105</v>
-      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
@@ -2102,7 +2112,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -2123,17 +2133,17 @@
       <c r="N31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O31" s="25" t="s">
-        <v>32</v>
+      <c r="O31" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="R31" s="29" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -2144,7 +2154,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -2153,14 +2163,30 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
+      <c r="K32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O32" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="R32" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
@@ -2169,46 +2195,24 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>62</v>
+      <c r="C33" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="9">
-        <v>85.7</v>
-      </c>
-      <c r="G33" s="9">
-        <v>66.7</v>
-      </c>
-      <c r="H33" s="9">
-        <v>2101200016</v>
-      </c>
-      <c r="I33" s="9">
-        <v>92.1</v>
-      </c>
-      <c r="J33" s="9">
-        <v>2101200097</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="9">
-        <v>54.5</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O33" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
@@ -2217,24 +2221,46 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>61</v>
+      <c r="C34" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
+      <c r="E34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="9">
+        <v>85.7</v>
+      </c>
+      <c r="G34" s="9">
+        <v>66.7</v>
+      </c>
+      <c r="H34" s="9">
+        <v>2101200016</v>
+      </c>
+      <c r="I34" s="9">
+        <v>92.1</v>
+      </c>
+      <c r="J34" s="9">
+        <v>2101200097</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="9">
+        <v>54.5</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
@@ -2243,7 +2269,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C35" s="8"/>
+      <c r="C35" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -2267,9 +2295,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="C36" s="8"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -2294,7 +2320,7 @@
         <v>32</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -2303,30 +2329,14 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O37" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="P37" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q37" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="R37" s="29" t="s">
-        <v>93</v>
-      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
@@ -2336,7 +2346,7 @@
         <v>33</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -2345,14 +2355,30 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
+      <c r="K38" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O38" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="P38" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q38" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="R38" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
@@ -2362,7 +2388,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -2388,7 +2414,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -2414,7 +2440,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -2423,30 +2449,14 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="O41" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="P41" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q41" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="R41" s="29" t="s">
-        <v>136</v>
-      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
@@ -2456,7 +2466,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -2465,14 +2475,30 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
+      <c r="K42" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O42" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="P42" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q42" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="R42" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
@@ -2482,7 +2508,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -2508,7 +2534,7 @@
         <v>39</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -2534,7 +2560,7 @@
         <v>40</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -2543,30 +2569,14 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="O45" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="P45" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q45" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="R45" s="29" t="s">
-        <v>140</v>
-      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
@@ -2574,6 +2584,9 @@
       <c r="B46" s="31">
         <f t="shared" si="0"/>
         <v>41</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -2582,14 +2595,30 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
+      <c r="K46" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O46" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="P46" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q46" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="R46" s="29" t="s">
+        <v>140</v>
+      </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
@@ -2598,31 +2627,14 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="9">
-        <v>85.7</v>
-      </c>
-      <c r="G47" s="9">
-        <v>66.7</v>
-      </c>
-      <c r="H47" s="9">
-        <v>2101200016</v>
-      </c>
-      <c r="I47" s="9">
-        <v>92.1</v>
-      </c>
-      <c r="J47" s="9">
-        <v>2101200097</v>
-      </c>
-      <c r="K47" s="9">
-        <v>320</v>
-      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -2639,16 +2651,30 @@
         <v>43</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
+      <c r="E48" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="9">
+        <v>85.7</v>
+      </c>
+      <c r="G48" s="9">
+        <v>66.7</v>
+      </c>
+      <c r="H48" s="9">
+        <v>2101200016</v>
+      </c>
+      <c r="I48" s="9">
+        <v>92.1</v>
+      </c>
+      <c r="J48" s="9">
+        <v>2101200097</v>
+      </c>
+      <c r="K48" s="9">
+        <v>320</v>
+      </c>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -2665,7 +2691,7 @@
         <v>44</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -2690,8 +2716,8 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>47</v>
+      <c r="C50" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -2717,7 +2743,7 @@
         <v>46</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -2738,8 +2764,13 @@
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B52" s="7"/>
-      <c r="C52" s="9"/>
+      <c r="B52" s="31">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -3178,45 +3209,45 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="11"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B73" s="7"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="20"/>
-      <c r="Q74" s="20"/>
-      <c r="R74" s="20"/>
+    <row r="74" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="11"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
@@ -4747,9 +4778,9 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
-      <c r="Q147" s="1"/>
-      <c r="R147" s="1"/>
+      <c r="P147" s="20"/>
+      <c r="Q147" s="20"/>
+      <c r="R147" s="20"/>
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
@@ -5761,56 +5792,79 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
+    <row r="196" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="T196" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P6" r:id="rId1"/>
     <hyperlink ref="P8" r:id="rId2"/>
-    <hyperlink ref="P31" r:id="rId3"/>
-    <hyperlink ref="Q31" r:id="rId4"/>
+    <hyperlink ref="P32" r:id="rId3"/>
+    <hyperlink ref="Q32" r:id="rId4"/>
     <hyperlink ref="R6" r:id="rId5"/>
     <hyperlink ref="R8" r:id="rId6"/>
-    <hyperlink ref="R31" r:id="rId7"/>
-    <hyperlink ref="P24" r:id="rId8"/>
-    <hyperlink ref="Q24" r:id="rId9"/>
-    <hyperlink ref="R24" r:id="rId10"/>
-    <hyperlink ref="P20" r:id="rId11"/>
-    <hyperlink ref="Q20" r:id="rId12"/>
-    <hyperlink ref="R20" r:id="rId13"/>
+    <hyperlink ref="R32" r:id="rId7"/>
+    <hyperlink ref="P25" r:id="rId8"/>
+    <hyperlink ref="Q25" r:id="rId9"/>
+    <hyperlink ref="R25" r:id="rId10"/>
+    <hyperlink ref="P21" r:id="rId11"/>
+    <hyperlink ref="Q21" r:id="rId12"/>
+    <hyperlink ref="R21" r:id="rId13"/>
     <hyperlink ref="R9" r:id="rId14"/>
     <hyperlink ref="P9" r:id="rId15"/>
-    <hyperlink ref="P22" r:id="rId16"/>
-    <hyperlink ref="Q22" r:id="rId17"/>
-    <hyperlink ref="R22" r:id="rId18"/>
-    <hyperlink ref="P37" r:id="rId19"/>
-    <hyperlink ref="Q37" r:id="rId20"/>
-    <hyperlink ref="R37" r:id="rId21"/>
+    <hyperlink ref="P23" r:id="rId16"/>
+    <hyperlink ref="Q23" r:id="rId17"/>
+    <hyperlink ref="R23" r:id="rId18"/>
+    <hyperlink ref="P38" r:id="rId19"/>
+    <hyperlink ref="Q38" r:id="rId20"/>
+    <hyperlink ref="R38" r:id="rId21"/>
     <hyperlink ref="Q9" r:id="rId22"/>
-    <hyperlink ref="P30" r:id="rId23"/>
-    <hyperlink ref="Q30" r:id="rId24"/>
-    <hyperlink ref="R30" r:id="rId25"/>
+    <hyperlink ref="P31" r:id="rId23"/>
+    <hyperlink ref="Q31" r:id="rId24"/>
+    <hyperlink ref="R31" r:id="rId25"/>
     <hyperlink ref="P10" r:id="rId26"/>
     <hyperlink ref="Q10" r:id="rId27"/>
     <hyperlink ref="R10" r:id="rId28"/>
     <hyperlink ref="P7" r:id="rId29"/>
     <hyperlink ref="Q7" r:id="rId30"/>
     <hyperlink ref="R7" r:id="rId31"/>
-    <hyperlink ref="P26" r:id="rId32"/>
-    <hyperlink ref="Q26" r:id="rId33"/>
-    <hyperlink ref="R26" r:id="rId34"/>
-    <hyperlink ref="P16" r:id="rId35"/>
-    <hyperlink ref="Q16" r:id="rId36"/>
-    <hyperlink ref="R16" r:id="rId37"/>
-    <hyperlink ref="P41" r:id="rId38"/>
-    <hyperlink ref="Q41" r:id="rId39"/>
-    <hyperlink ref="R41" r:id="rId40"/>
-    <hyperlink ref="P45" r:id="rId41"/>
-    <hyperlink ref="Q45" r:id="rId42"/>
-    <hyperlink ref="R45" r:id="rId43"/>
-    <hyperlink ref="P12" r:id="rId44"/>
-    <hyperlink ref="Q12" r:id="rId45"/>
-    <hyperlink ref="R12" r:id="rId46"/>
+    <hyperlink ref="P27" r:id="rId32"/>
+    <hyperlink ref="Q27" r:id="rId33"/>
+    <hyperlink ref="R27" r:id="rId34"/>
+    <hyperlink ref="P17" r:id="rId35"/>
+    <hyperlink ref="Q17" r:id="rId36"/>
+    <hyperlink ref="R17" r:id="rId37"/>
+    <hyperlink ref="P42" r:id="rId38"/>
+    <hyperlink ref="Q42" r:id="rId39"/>
+    <hyperlink ref="R42" r:id="rId40"/>
+    <hyperlink ref="P46" r:id="rId41"/>
+    <hyperlink ref="Q46" r:id="rId42"/>
+    <hyperlink ref="R46" r:id="rId43"/>
+    <hyperlink ref="P13" r:id="rId44"/>
+    <hyperlink ref="Q13" r:id="rId45"/>
+    <hyperlink ref="R13" r:id="rId46"/>
+    <hyperlink ref="P12" r:id="rId47"/>
+    <hyperlink ref="Q12" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId47"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId49"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="151">
   <si>
     <t>No</t>
   </si>
@@ -477,6 +477,15 @@
   </si>
   <si>
     <t>320±10</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\9. Pinta Х-КПНн-568-9</t>
+  </si>
+  <si>
+    <t>Maps Package\9. Pinta Х-КПНн-568-9</t>
+  </si>
+  <si>
+    <t>Eng Drawings\9. Pinta Х-КПНн-568-9</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1212,10 @@
   <dimension ref="B4:AC196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1673,10 +1682,18 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
+      <c r="O16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>150</v>
+      </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
@@ -5863,8 +5880,11 @@
     <hyperlink ref="R13" r:id="rId46"/>
     <hyperlink ref="P12" r:id="rId47"/>
     <hyperlink ref="Q12" r:id="rId48"/>
+    <hyperlink ref="P16" r:id="rId49"/>
+    <hyperlink ref="Q16" r:id="rId50"/>
+    <hyperlink ref="R16" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId49"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId52"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="158">
   <si>
     <t>No</t>
   </si>
@@ -486,6 +486,27 @@
   </si>
   <si>
     <t>Eng Drawings\9. Pinta Х-КПНн-568-9</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\36. DESANT wine X- В-28-1-500-36</t>
+  </si>
+  <si>
+    <t>Maps Package\36. DESANT wine X- В-28-1-500-36</t>
+  </si>
+  <si>
+    <t>Eng Drawings\36. DESANT wine X- В-28-1-500-36</t>
+  </si>
+  <si>
+    <t>375±15</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\12. LONG-NECK Х-КПНв.5-500-12</t>
+  </si>
+  <si>
+    <t>Maps Package\12. LONG-NECK Х-КПНв.5-500-12</t>
+  </si>
+  <si>
+    <t>Eng Drawings\12. LONG-NECK Х-КПНв.5-500-12</t>
   </si>
 </sst>
 </file>
@@ -1212,10 +1233,10 @@
   <dimension ref="B4:AC196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
+      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1777,14 +1798,30 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
+      <c r="K19" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="R19" s="29" t="s">
+        <v>157</v>
+      </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
@@ -2586,14 +2623,30 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
+      <c r="K45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O45" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="P45" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q45" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="R45" s="29" t="s">
+        <v>153</v>
+      </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
@@ -5883,8 +5936,14 @@
     <hyperlink ref="P16" r:id="rId49"/>
     <hyperlink ref="Q16" r:id="rId50"/>
     <hyperlink ref="R16" r:id="rId51"/>
+    <hyperlink ref="P45" r:id="rId52"/>
+    <hyperlink ref="Q45" r:id="rId53"/>
+    <hyperlink ref="R45" r:id="rId54"/>
+    <hyperlink ref="P19" r:id="rId55"/>
+    <hyperlink ref="Q19" r:id="rId56"/>
+    <hyperlink ref="R19" r:id="rId57"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId52"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId58"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -808,7 +808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -858,9 +858,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -897,9 +894,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -914,6 +908,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1233,10 +1230,10 @@
   <dimension ref="B4:AC196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="P51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
+      <selection pane="bottomRight" activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1298,10 +1295,10 @@
       <c r="O5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="Q5" s="21" t="s">
         <v>34</v>
       </c>
       <c r="R5" s="16" t="s">
@@ -1335,46 +1332,46 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27" t="s">
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26" t="s">
         <v>42</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="31">
+      <c r="B7" s="29">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
       <c r="K7" s="9" t="s">
         <v>98</v>
       </c>
@@ -1387,23 +1384,23 @@
       <c r="N7" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="O7" s="25" t="s">
+      <c r="O7" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="P7" s="34" t="s">
+      <c r="P7" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="Q7" s="35" t="s">
+      <c r="Q7" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="R7" s="35" t="s">
+      <c r="R7" s="33" t="s">
         <v>120</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="31">
+      <c r="B8" s="29">
         <f t="shared" ref="B8:B52" si="0">B7+1</f>
         <v>3</v>
       </c>
@@ -1429,21 +1426,21 @@
       <c r="N8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="28" t="s">
+      <c r="P8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29" t="s">
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28" t="s">
         <v>43</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="31">
+      <c r="B9" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1469,23 +1466,23 @@
       <c r="N9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="O9" s="30" t="s">
+      <c r="O9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="28" t="s">
+      <c r="P9" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="Q9" s="29" t="s">
+      <c r="Q9" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="R9" s="29" t="s">
+      <c r="R9" s="28" t="s">
         <v>86</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="31">
+      <c r="B10" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1511,23 +1508,23 @@
       <c r="N10" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="O10" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="P10" s="28" t="s">
+      <c r="P10" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="R10" s="29" t="s">
+      <c r="R10" s="28" t="s">
         <v>109</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="31">
+      <c r="B11" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1545,15 +1542,15 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="31">
+      <c r="B12" s="29">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1579,21 +1576,21 @@
       <c r="N12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="25" t="s">
+      <c r="O12" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="P12" s="28" t="s">
+      <c r="P12" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="Q12" s="29" t="s">
+      <c r="Q12" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="R12" s="29"/>
+      <c r="R12" s="28"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B13" s="31">
+      <c r="B13" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1619,23 +1616,23 @@
       <c r="N13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="28" t="s">
+      <c r="P13" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="Q13" s="29" t="s">
+      <c r="Q13" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="R13" s="29" t="s">
+      <c r="R13" s="28" t="s">
         <v>143</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="31">
+      <c r="B14" s="29">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1651,15 +1648,15 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="31">
+      <c r="B15" s="29">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1677,15 +1674,15 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="18"/>
+      <c r="O15" s="17"/>
       <c r="P15" s="9"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="31">
+      <c r="B16" s="29">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1703,23 +1700,23 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="18" t="s">
+      <c r="O16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="P16" s="28" t="s">
+      <c r="P16" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="Q16" s="29" t="s">
+      <c r="Q16" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="R16" s="29" t="s">
+      <c r="R16" s="28" t="s">
         <v>150</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="31">
+      <c r="B17" s="29">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1745,23 +1742,23 @@
       <c r="N17" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="O17" s="25" t="s">
+      <c r="O17" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="P17" s="28" t="s">
+      <c r="P17" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="Q17" s="29" t="s">
+      <c r="Q17" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="R17" s="29" t="s">
+      <c r="R17" s="28" t="s">
         <v>128</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="31">
+      <c r="B18" s="29">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1776,15 +1773,15 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="18"/>
+      <c r="O18" s="17"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="31">
+      <c r="B19" s="29">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1810,23 +1807,23 @@
       <c r="N19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="25" t="s">
+      <c r="O19" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="P19" s="28" t="s">
+      <c r="P19" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="Q19" s="29" t="s">
+      <c r="Q19" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="R19" s="29" t="s">
+      <c r="R19" s="28" t="s">
         <v>157</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="31">
+      <c r="B20" s="29">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1841,15 +1838,15 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="18"/>
+      <c r="O20" s="17"/>
       <c r="P20" s="9"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="31">
+      <c r="B21" s="29">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1875,23 +1872,23 @@
       <c r="N21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O21" s="25" t="s">
+      <c r="O21" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="P21" s="28" t="s">
+      <c r="P21" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="Q21" s="29" t="s">
+      <c r="Q21" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="R21" s="29" t="s">
+      <c r="R21" s="28" t="s">
         <v>85</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="31">
+      <c r="B22" s="29">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1909,15 +1906,15 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="18"/>
+      <c r="O22" s="17"/>
       <c r="P22" s="9"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="31">
+      <c r="B23" s="29">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1935,21 +1932,21 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="28" t="s">
+      <c r="O23" s="17"/>
+      <c r="P23" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="Q23" s="29" t="s">
+      <c r="Q23" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="R23" s="29" t="s">
+      <c r="R23" s="28" t="s">
         <v>90</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="31">
+      <c r="B24" s="29">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1967,15 +1964,15 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-      <c r="O24" s="18"/>
+      <c r="O24" s="17"/>
       <c r="P24" s="9"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="31">
+      <c r="B25" s="29">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2001,23 +1998,23 @@
       <c r="N25" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="O25" s="18" t="s">
+      <c r="O25" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="P25" s="28" t="s">
+      <c r="P25" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="Q25" s="29" t="s">
+      <c r="Q25" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="R25" s="29" t="s">
+      <c r="R25" s="28" t="s">
         <v>78</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="31">
+      <c r="B26" s="29">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -2035,15 +2032,15 @@
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
-      <c r="O26" s="18"/>
+      <c r="O26" s="17"/>
       <c r="P26" s="9"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="31">
+      <c r="B27" s="29">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -2069,23 +2066,23 @@
       <c r="N27" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O27" s="25" t="s">
+      <c r="O27" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="Q27" s="29" t="s">
+      <c r="Q27" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="R27" s="29" t="s">
+      <c r="R27" s="28" t="s">
         <v>123</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="31">
+      <c r="B28" s="29">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -2103,15 +2100,15 @@
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
-      <c r="O28" s="18"/>
+      <c r="O28" s="17"/>
       <c r="P28" s="9"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="31">
+      <c r="B29" s="29">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -2129,15 +2126,15 @@
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
-      <c r="O29" s="18"/>
+      <c r="O29" s="17"/>
       <c r="P29" s="9"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="31">
+      <c r="B30" s="29">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -2153,15 +2150,15 @@
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
-      <c r="O30" s="18"/>
+      <c r="O30" s="17"/>
       <c r="P30" s="9"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="9"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="31">
+      <c r="B31" s="29">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -2187,23 +2184,23 @@
       <c r="N31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O31" s="18" t="s">
+      <c r="O31" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="P31" s="28" t="s">
+      <c r="P31" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="Q31" s="29" t="s">
+      <c r="Q31" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="R31" s="29" t="s">
+      <c r="R31" s="27" t="s">
         <v>105</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="31">
+      <c r="B32" s="29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -2229,23 +2226,23 @@
       <c r="N32" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O32" s="25" t="s">
+      <c r="O32" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="P32" s="28" t="s">
+      <c r="P32" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="Q32" s="29" t="s">
+      <c r="Q32" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="R32" s="29" t="s">
+      <c r="R32" s="27" t="s">
         <v>45</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="31">
+      <c r="B33" s="29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -2263,19 +2260,19 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
-      <c r="O33" s="18"/>
+      <c r="O33" s="17"/>
       <c r="P33" s="9"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="9"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="31">
+      <c r="B34" s="29">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="9"/>
@@ -2309,17 +2306,17 @@
       <c r="N34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O34" s="18" t="s">
+      <c r="O34" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="27"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="31">
+      <c r="B35" s="29">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -2337,15 +2334,15 @@
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
-      <c r="O35" s="18"/>
+      <c r="O35" s="17"/>
       <c r="P35" s="9"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="9"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="31">
+      <c r="B36" s="29">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -2361,15 +2358,15 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
-      <c r="O36" s="18"/>
+      <c r="O36" s="17"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="9"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="31">
+      <c r="B37" s="29">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -2387,15 +2384,15 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="18"/>
+      <c r="O37" s="17"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="9"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="31">
+      <c r="B38" s="29">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -2421,23 +2418,23 @@
       <c r="N38" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O38" s="25" t="s">
+      <c r="O38" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="P38" s="28" t="s">
+      <c r="P38" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="Q38" s="29" t="s">
+      <c r="Q38" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="R38" s="29" t="s">
+      <c r="R38" s="27" t="s">
         <v>93</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="31">
+      <c r="B39" s="29">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -2455,15 +2452,15 @@
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
-      <c r="O39" s="18"/>
+      <c r="O39" s="17"/>
       <c r="P39" s="9"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="9"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="31">
+      <c r="B40" s="29">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -2481,15 +2478,15 @@
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
-      <c r="O40" s="18"/>
+      <c r="O40" s="17"/>
       <c r="P40" s="9"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="9"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="31">
+      <c r="B41" s="29">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -2507,15 +2504,15 @@
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
-      <c r="O41" s="18"/>
+      <c r="O41" s="17"/>
       <c r="P41" s="9"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="9"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="31">
+      <c r="B42" s="29">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -2541,23 +2538,23 @@
       <c r="N42" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="O42" s="18" t="s">
+      <c r="O42" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="P42" s="28" t="s">
+      <c r="P42" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="Q42" s="29" t="s">
+      <c r="Q42" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="R42" s="29" t="s">
+      <c r="R42" s="27" t="s">
         <v>136</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="31">
+      <c r="B43" s="29">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -2575,15 +2572,15 @@
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
-      <c r="O43" s="18"/>
+      <c r="O43" s="17"/>
       <c r="P43" s="9"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="9"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="31">
+      <c r="B44" s="29">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -2601,15 +2598,15 @@
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
-      <c r="O44" s="18"/>
+      <c r="O44" s="17"/>
       <c r="P44" s="9"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="9"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="31">
+      <c r="B45" s="29">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -2635,23 +2632,23 @@
       <c r="N45" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O45" s="18" t="s">
+      <c r="O45" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="P45" s="28" t="s">
+      <c r="P45" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="Q45" s="29" t="s">
+      <c r="Q45" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="R45" s="29" t="s">
+      <c r="R45" s="27" t="s">
         <v>153</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="31">
+      <c r="B46" s="29">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -2677,23 +2674,23 @@
       <c r="N46" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="O46" s="18" t="s">
+      <c r="O46" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="P46" s="28" t="s">
+      <c r="P46" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="Q46" s="29" t="s">
+      <c r="Q46" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="R46" s="29" t="s">
+      <c r="R46" s="27" t="s">
         <v>140</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="31">
+      <c r="B47" s="29">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -2708,15 +2705,15 @@
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
-      <c r="O47" s="18"/>
+      <c r="O47" s="17"/>
       <c r="P47" s="9"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="9"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="31">
+      <c r="B48" s="29">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -2748,15 +2745,15 @@
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
-      <c r="O48" s="18"/>
+      <c r="O48" s="17"/>
       <c r="P48" s="9"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="9"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B49" s="31">
+      <c r="B49" s="29">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -2774,15 +2771,15 @@
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
-      <c r="O49" s="18"/>
+      <c r="O49" s="17"/>
       <c r="P49" s="9"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="9"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B50" s="31">
+      <c r="B50" s="29">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -2800,15 +2797,15 @@
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
-      <c r="O50" s="18"/>
+      <c r="O50" s="17"/>
       <c r="P50" s="9"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="9"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B51" s="31">
+      <c r="B51" s="29">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -2826,15 +2823,15 @@
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
-      <c r="O51" s="18"/>
+      <c r="O51" s="17"/>
       <c r="P51" s="9"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="9"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B52" s="31">
+      <c r="B52" s="29">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -2852,10 +2849,10 @@
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
-      <c r="O52" s="18"/>
+      <c r="O52" s="17"/>
       <c r="P52" s="9"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="9"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
@@ -2873,10 +2870,10 @@
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
-      <c r="O53" s="18"/>
+      <c r="O53" s="17"/>
       <c r="P53" s="9"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="9"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
@@ -2894,10 +2891,10 @@
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
-      <c r="O54" s="18"/>
+      <c r="O54" s="17"/>
       <c r="P54" s="9"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="9"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
@@ -2915,10 +2912,10 @@
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
-      <c r="O55" s="18"/>
+      <c r="O55" s="17"/>
       <c r="P55" s="9"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="9"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
@@ -2936,10 +2933,10 @@
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
-      <c r="O56" s="18"/>
+      <c r="O56" s="17"/>
       <c r="P56" s="9"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="9"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
@@ -2957,10 +2954,10 @@
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
-      <c r="O57" s="18"/>
+      <c r="O57" s="17"/>
       <c r="P57" s="9"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="9"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
@@ -2978,10 +2975,10 @@
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
-      <c r="O58" s="18"/>
+      <c r="O58" s="17"/>
       <c r="P58" s="9"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="9"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
@@ -2999,10 +2996,10 @@
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
-      <c r="O59" s="18"/>
+      <c r="O59" s="17"/>
       <c r="P59" s="9"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="9"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
@@ -3020,10 +3017,10 @@
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
-      <c r="O60" s="18"/>
+      <c r="O60" s="17"/>
       <c r="P60" s="9"/>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="18"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="9"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
@@ -3041,10 +3038,10 @@
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
-      <c r="O61" s="18"/>
+      <c r="O61" s="17"/>
       <c r="P61" s="9"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="9"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
@@ -3062,10 +3059,10 @@
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
-      <c r="O62" s="18"/>
+      <c r="O62" s="17"/>
       <c r="P62" s="9"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="9"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
@@ -3083,10 +3080,10 @@
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
-      <c r="O63" s="18"/>
+      <c r="O63" s="17"/>
       <c r="P63" s="9"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="9"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
@@ -3104,10 +3101,10 @@
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
-      <c r="O64" s="18"/>
+      <c r="O64" s="17"/>
       <c r="P64" s="9"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="9"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
@@ -3125,10 +3122,10 @@
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
-      <c r="O65" s="18"/>
+      <c r="O65" s="17"/>
       <c r="P65" s="9"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="9"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
@@ -3146,10 +3143,10 @@
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
-      <c r="O66" s="18"/>
+      <c r="O66" s="17"/>
       <c r="P66" s="9"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="9"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
@@ -3167,10 +3164,10 @@
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
-      <c r="O67" s="18"/>
+      <c r="O67" s="17"/>
       <c r="P67" s="9"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="9"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
@@ -3188,10 +3185,10 @@
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
-      <c r="O68" s="18"/>
+      <c r="O68" s="17"/>
       <c r="P68" s="9"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="9"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
@@ -3209,10 +3206,10 @@
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
-      <c r="O69" s="18"/>
+      <c r="O69" s="17"/>
       <c r="P69" s="9"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="9"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
@@ -3230,10 +3227,10 @@
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
-      <c r="O70" s="18"/>
+      <c r="O70" s="17"/>
       <c r="P70" s="9"/>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="18"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="9"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
@@ -3251,10 +3248,10 @@
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
-      <c r="O71" s="18"/>
+      <c r="O71" s="17"/>
       <c r="P71" s="9"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="18"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="9"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
@@ -3272,10 +3269,10 @@
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
-      <c r="O72" s="18"/>
+      <c r="O72" s="17"/>
       <c r="P72" s="9"/>
-      <c r="Q72" s="18"/>
-      <c r="R72" s="18"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="9"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
@@ -3293,10 +3290,10 @@
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
-      <c r="O73" s="18"/>
+      <c r="O73" s="17"/>
       <c r="P73" s="9"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="9"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
@@ -3314,10 +3311,10 @@
       <c r="L74" s="12"/>
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
-      <c r="O74" s="19"/>
+      <c r="O74" s="18"/>
       <c r="P74" s="12"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="19"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="12"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
@@ -3336,9 +3333,9 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
-      <c r="P75" s="20"/>
-      <c r="Q75" s="20"/>
-      <c r="R75" s="20"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
@@ -3357,9 +3354,9 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
-      <c r="P76" s="20"/>
-      <c r="Q76" s="20"/>
-      <c r="R76" s="20"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
@@ -3378,9 +3375,9 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
-      <c r="P77" s="20"/>
-      <c r="Q77" s="20"/>
-      <c r="R77" s="20"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
@@ -3399,9 +3396,9 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="20"/>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="20"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
@@ -3420,9 +3417,9 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
-      <c r="P79" s="20"/>
-      <c r="Q79" s="20"/>
-      <c r="R79" s="20"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
@@ -3441,9 +3438,9 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="20"/>
-      <c r="Q80" s="20"/>
-      <c r="R80" s="20"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
@@ -3462,9 +3459,9 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
-      <c r="P81" s="20"/>
-      <c r="Q81" s="20"/>
-      <c r="R81" s="20"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
@@ -3483,9 +3480,9 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="20"/>
-      <c r="Q82" s="20"/>
-      <c r="R82" s="20"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
@@ -3504,9 +3501,9 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
-      <c r="P83" s="20"/>
-      <c r="Q83" s="20"/>
-      <c r="R83" s="20"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
@@ -3525,9 +3522,9 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="20"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
@@ -3546,9 +3543,9 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="20"/>
-      <c r="Q85" s="20"/>
-      <c r="R85" s="20"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
@@ -3567,9 +3564,9 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
-      <c r="P86" s="20"/>
-      <c r="Q86" s="20"/>
-      <c r="R86" s="20"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
@@ -3588,9 +3585,9 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
-      <c r="P87" s="20"/>
-      <c r="Q87" s="20"/>
-      <c r="R87" s="20"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
@@ -3609,9 +3606,9 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
-      <c r="P88" s="20"/>
-      <c r="Q88" s="20"/>
-      <c r="R88" s="20"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="19"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
@@ -3630,9 +3627,9 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
-      <c r="P89" s="20"/>
-      <c r="Q89" s="20"/>
-      <c r="R89" s="20"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
@@ -3651,9 +3648,9 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
-      <c r="P90" s="20"/>
-      <c r="Q90" s="20"/>
-      <c r="R90" s="20"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
@@ -3672,9 +3669,9 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
-      <c r="P91" s="20"/>
-      <c r="Q91" s="20"/>
-      <c r="R91" s="20"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
@@ -3693,9 +3690,9 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
-      <c r="P92" s="20"/>
-      <c r="Q92" s="20"/>
-      <c r="R92" s="20"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="19"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
@@ -3714,9 +3711,9 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
-      <c r="P93" s="20"/>
-      <c r="Q93" s="20"/>
-      <c r="R93" s="20"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
@@ -3735,9 +3732,9 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
-      <c r="P94" s="20"/>
-      <c r="Q94" s="20"/>
-      <c r="R94" s="20"/>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="19"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
@@ -3756,9 +3753,9 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
-      <c r="P95" s="20"/>
-      <c r="Q95" s="20"/>
-      <c r="R95" s="20"/>
+      <c r="P95" s="19"/>
+      <c r="Q95" s="19"/>
+      <c r="R95" s="19"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
@@ -3777,9 +3774,9 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
-      <c r="P96" s="20"/>
-      <c r="Q96" s="20"/>
-      <c r="R96" s="20"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
@@ -3798,9 +3795,9 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
-      <c r="P97" s="20"/>
-      <c r="Q97" s="20"/>
-      <c r="R97" s="20"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="19"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
@@ -3819,9 +3816,9 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
-      <c r="P98" s="20"/>
-      <c r="Q98" s="20"/>
-      <c r="R98" s="20"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
@@ -3840,9 +3837,9 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
-      <c r="P99" s="20"/>
-      <c r="Q99" s="20"/>
-      <c r="R99" s="20"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="19"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
@@ -3861,9 +3858,9 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
-      <c r="P100" s="20"/>
-      <c r="Q100" s="20"/>
-      <c r="R100" s="20"/>
+      <c r="P100" s="19"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
@@ -3882,9 +3879,9 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
-      <c r="P101" s="20"/>
-      <c r="Q101" s="20"/>
-      <c r="R101" s="20"/>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
@@ -3903,9 +3900,9 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
-      <c r="P102" s="20"/>
-      <c r="Q102" s="20"/>
-      <c r="R102" s="20"/>
+      <c r="P102" s="19"/>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="19"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
@@ -3924,9 +3921,9 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
-      <c r="P103" s="20"/>
-      <c r="Q103" s="20"/>
-      <c r="R103" s="20"/>
+      <c r="P103" s="19"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="19"/>
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
@@ -3945,9 +3942,9 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
-      <c r="P104" s="20"/>
-      <c r="Q104" s="20"/>
-      <c r="R104" s="20"/>
+      <c r="P104" s="19"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="19"/>
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
@@ -3966,9 +3963,9 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
-      <c r="P105" s="20"/>
-      <c r="Q105" s="20"/>
-      <c r="R105" s="20"/>
+      <c r="P105" s="19"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="19"/>
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
@@ -3987,9 +3984,9 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
-      <c r="P106" s="20"/>
-      <c r="Q106" s="20"/>
-      <c r="R106" s="20"/>
+      <c r="P106" s="19"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="19"/>
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
@@ -4008,9 +4005,9 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
-      <c r="P107" s="20"/>
-      <c r="Q107" s="20"/>
-      <c r="R107" s="20"/>
+      <c r="P107" s="19"/>
+      <c r="Q107" s="19"/>
+      <c r="R107" s="19"/>
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
@@ -4029,9 +4026,9 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
-      <c r="P108" s="20"/>
-      <c r="Q108" s="20"/>
-      <c r="R108" s="20"/>
+      <c r="P108" s="19"/>
+      <c r="Q108" s="19"/>
+      <c r="R108" s="19"/>
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
@@ -4050,9 +4047,9 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
-      <c r="P109" s="20"/>
-      <c r="Q109" s="20"/>
-      <c r="R109" s="20"/>
+      <c r="P109" s="19"/>
+      <c r="Q109" s="19"/>
+      <c r="R109" s="19"/>
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
@@ -4071,9 +4068,9 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
-      <c r="P110" s="20"/>
-      <c r="Q110" s="20"/>
-      <c r="R110" s="20"/>
+      <c r="P110" s="19"/>
+      <c r="Q110" s="19"/>
+      <c r="R110" s="19"/>
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
@@ -4092,9 +4089,9 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
-      <c r="P111" s="20"/>
-      <c r="Q111" s="20"/>
-      <c r="R111" s="20"/>
+      <c r="P111" s="19"/>
+      <c r="Q111" s="19"/>
+      <c r="R111" s="19"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
@@ -4113,9 +4110,9 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
-      <c r="P112" s="20"/>
-      <c r="Q112" s="20"/>
-      <c r="R112" s="20"/>
+      <c r="P112" s="19"/>
+      <c r="Q112" s="19"/>
+      <c r="R112" s="19"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
@@ -4134,9 +4131,9 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
-      <c r="P113" s="20"/>
-      <c r="Q113" s="20"/>
-      <c r="R113" s="20"/>
+      <c r="P113" s="19"/>
+      <c r="Q113" s="19"/>
+      <c r="R113" s="19"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
@@ -4155,9 +4152,9 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
-      <c r="P114" s="20"/>
-      <c r="Q114" s="20"/>
-      <c r="R114" s="20"/>
+      <c r="P114" s="19"/>
+      <c r="Q114" s="19"/>
+      <c r="R114" s="19"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
@@ -4176,9 +4173,9 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
-      <c r="P115" s="20"/>
-      <c r="Q115" s="20"/>
-      <c r="R115" s="20"/>
+      <c r="P115" s="19"/>
+      <c r="Q115" s="19"/>
+      <c r="R115" s="19"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
@@ -4197,9 +4194,9 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
-      <c r="P116" s="20"/>
-      <c r="Q116" s="20"/>
-      <c r="R116" s="20"/>
+      <c r="P116" s="19"/>
+      <c r="Q116" s="19"/>
+      <c r="R116" s="19"/>
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
@@ -4218,9 +4215,9 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
-      <c r="P117" s="20"/>
-      <c r="Q117" s="20"/>
-      <c r="R117" s="20"/>
+      <c r="P117" s="19"/>
+      <c r="Q117" s="19"/>
+      <c r="R117" s="19"/>
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
@@ -4239,9 +4236,9 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
-      <c r="P118" s="20"/>
-      <c r="Q118" s="20"/>
-      <c r="R118" s="20"/>
+      <c r="P118" s="19"/>
+      <c r="Q118" s="19"/>
+      <c r="R118" s="19"/>
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
@@ -4260,9 +4257,9 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
-      <c r="P119" s="20"/>
-      <c r="Q119" s="20"/>
-      <c r="R119" s="20"/>
+      <c r="P119" s="19"/>
+      <c r="Q119" s="19"/>
+      <c r="R119" s="19"/>
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
@@ -4281,9 +4278,9 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
-      <c r="P120" s="20"/>
-      <c r="Q120" s="20"/>
-      <c r="R120" s="20"/>
+      <c r="P120" s="19"/>
+      <c r="Q120" s="19"/>
+      <c r="R120" s="19"/>
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
@@ -4302,9 +4299,9 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
-      <c r="P121" s="20"/>
-      <c r="Q121" s="20"/>
-      <c r="R121" s="20"/>
+      <c r="P121" s="19"/>
+      <c r="Q121" s="19"/>
+      <c r="R121" s="19"/>
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
@@ -4323,9 +4320,9 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
-      <c r="P122" s="20"/>
-      <c r="Q122" s="20"/>
-      <c r="R122" s="20"/>
+      <c r="P122" s="19"/>
+      <c r="Q122" s="19"/>
+      <c r="R122" s="19"/>
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
@@ -4344,9 +4341,9 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
-      <c r="P123" s="20"/>
-      <c r="Q123" s="20"/>
-      <c r="R123" s="20"/>
+      <c r="P123" s="19"/>
+      <c r="Q123" s="19"/>
+      <c r="R123" s="19"/>
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
@@ -4365,9 +4362,9 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
-      <c r="P124" s="20"/>
-      <c r="Q124" s="20"/>
-      <c r="R124" s="20"/>
+      <c r="P124" s="19"/>
+      <c r="Q124" s="19"/>
+      <c r="R124" s="19"/>
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
@@ -4386,9 +4383,9 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
-      <c r="P125" s="20"/>
-      <c r="Q125" s="20"/>
-      <c r="R125" s="20"/>
+      <c r="P125" s="19"/>
+      <c r="Q125" s="19"/>
+      <c r="R125" s="19"/>
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
@@ -4407,9 +4404,9 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
-      <c r="P126" s="20"/>
-      <c r="Q126" s="20"/>
-      <c r="R126" s="20"/>
+      <c r="P126" s="19"/>
+      <c r="Q126" s="19"/>
+      <c r="R126" s="19"/>
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
@@ -4428,9 +4425,9 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
-      <c r="P127" s="20"/>
-      <c r="Q127" s="20"/>
-      <c r="R127" s="20"/>
+      <c r="P127" s="19"/>
+      <c r="Q127" s="19"/>
+      <c r="R127" s="19"/>
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
@@ -4449,9 +4446,9 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
-      <c r="P128" s="20"/>
-      <c r="Q128" s="20"/>
-      <c r="R128" s="20"/>
+      <c r="P128" s="19"/>
+      <c r="Q128" s="19"/>
+      <c r="R128" s="19"/>
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
@@ -4470,9 +4467,9 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
-      <c r="P129" s="20"/>
-      <c r="Q129" s="20"/>
-      <c r="R129" s="20"/>
+      <c r="P129" s="19"/>
+      <c r="Q129" s="19"/>
+      <c r="R129" s="19"/>
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
@@ -4491,9 +4488,9 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
-      <c r="P130" s="20"/>
-      <c r="Q130" s="20"/>
-      <c r="R130" s="20"/>
+      <c r="P130" s="19"/>
+      <c r="Q130" s="19"/>
+      <c r="R130" s="19"/>
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
@@ -4512,9 +4509,9 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
-      <c r="P131" s="20"/>
-      <c r="Q131" s="20"/>
-      <c r="R131" s="20"/>
+      <c r="P131" s="19"/>
+      <c r="Q131" s="19"/>
+      <c r="R131" s="19"/>
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
@@ -4533,9 +4530,9 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
-      <c r="P132" s="20"/>
-      <c r="Q132" s="20"/>
-      <c r="R132" s="20"/>
+      <c r="P132" s="19"/>
+      <c r="Q132" s="19"/>
+      <c r="R132" s="19"/>
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
@@ -4554,9 +4551,9 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
-      <c r="P133" s="20"/>
-      <c r="Q133" s="20"/>
-      <c r="R133" s="20"/>
+      <c r="P133" s="19"/>
+      <c r="Q133" s="19"/>
+      <c r="R133" s="19"/>
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
@@ -4575,9 +4572,9 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
-      <c r="P134" s="20"/>
-      <c r="Q134" s="20"/>
-      <c r="R134" s="20"/>
+      <c r="P134" s="19"/>
+      <c r="Q134" s="19"/>
+      <c r="R134" s="19"/>
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
@@ -4596,9 +4593,9 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
-      <c r="P135" s="20"/>
-      <c r="Q135" s="20"/>
-      <c r="R135" s="20"/>
+      <c r="P135" s="19"/>
+      <c r="Q135" s="19"/>
+      <c r="R135" s="19"/>
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
@@ -4617,9 +4614,9 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
-      <c r="P136" s="20"/>
-      <c r="Q136" s="20"/>
-      <c r="R136" s="20"/>
+      <c r="P136" s="19"/>
+      <c r="Q136" s="19"/>
+      <c r="R136" s="19"/>
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
@@ -4638,9 +4635,9 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
-      <c r="P137" s="20"/>
-      <c r="Q137" s="20"/>
-      <c r="R137" s="20"/>
+      <c r="P137" s="19"/>
+      <c r="Q137" s="19"/>
+      <c r="R137" s="19"/>
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
@@ -4659,9 +4656,9 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
-      <c r="P138" s="20"/>
-      <c r="Q138" s="20"/>
-      <c r="R138" s="20"/>
+      <c r="P138" s="19"/>
+      <c r="Q138" s="19"/>
+      <c r="R138" s="19"/>
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
@@ -4680,9 +4677,9 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
-      <c r="P139" s="20"/>
-      <c r="Q139" s="20"/>
-      <c r="R139" s="20"/>
+      <c r="P139" s="19"/>
+      <c r="Q139" s="19"/>
+      <c r="R139" s="19"/>
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
@@ -4701,9 +4698,9 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
-      <c r="P140" s="20"/>
-      <c r="Q140" s="20"/>
-      <c r="R140" s="20"/>
+      <c r="P140" s="19"/>
+      <c r="Q140" s="19"/>
+      <c r="R140" s="19"/>
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
@@ -4722,9 +4719,9 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
-      <c r="P141" s="20"/>
-      <c r="Q141" s="20"/>
-      <c r="R141" s="20"/>
+      <c r="P141" s="19"/>
+      <c r="Q141" s="19"/>
+      <c r="R141" s="19"/>
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
@@ -4743,9 +4740,9 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
-      <c r="P142" s="20"/>
-      <c r="Q142" s="20"/>
-      <c r="R142" s="20"/>
+      <c r="P142" s="19"/>
+      <c r="Q142" s="19"/>
+      <c r="R142" s="19"/>
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
@@ -4764,9 +4761,9 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
-      <c r="P143" s="20"/>
-      <c r="Q143" s="20"/>
-      <c r="R143" s="20"/>
+      <c r="P143" s="19"/>
+      <c r="Q143" s="19"/>
+      <c r="R143" s="19"/>
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
@@ -4785,9 +4782,9 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
-      <c r="P144" s="20"/>
-      <c r="Q144" s="20"/>
-      <c r="R144" s="20"/>
+      <c r="P144" s="19"/>
+      <c r="Q144" s="19"/>
+      <c r="R144" s="19"/>
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
@@ -4806,9 +4803,9 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
-      <c r="P145" s="20"/>
-      <c r="Q145" s="20"/>
-      <c r="R145" s="20"/>
+      <c r="P145" s="19"/>
+      <c r="Q145" s="19"/>
+      <c r="R145" s="19"/>
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
@@ -4827,9 +4824,9 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
-      <c r="P146" s="20"/>
-      <c r="Q146" s="20"/>
-      <c r="R146" s="20"/>
+      <c r="P146" s="19"/>
+      <c r="Q146" s="19"/>
+      <c r="R146" s="19"/>
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
@@ -4848,9 +4845,9 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
-      <c r="P147" s="20"/>
-      <c r="Q147" s="20"/>
-      <c r="R147" s="20"/>
+      <c r="P147" s="19"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="19"/>
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
@@ -5942,8 +5939,27 @@
     <hyperlink ref="P19" r:id="rId55"/>
     <hyperlink ref="Q19" r:id="rId56"/>
     <hyperlink ref="R19" r:id="rId57"/>
+    <hyperlink ref="O10" r:id="rId58"/>
+    <hyperlink ref="O6" r:id="rId59"/>
+    <hyperlink ref="O7" r:id="rId60"/>
+    <hyperlink ref="O8" r:id="rId61"/>
+    <hyperlink ref="O9" r:id="rId62"/>
+    <hyperlink ref="O12" r:id="rId63"/>
+    <hyperlink ref="O13" r:id="rId64"/>
+    <hyperlink ref="O16" r:id="rId65"/>
+    <hyperlink ref="O17" r:id="rId66"/>
+    <hyperlink ref="O19" r:id="rId67"/>
+    <hyperlink ref="O21" r:id="rId68"/>
+    <hyperlink ref="O25" r:id="rId69"/>
+    <hyperlink ref="O27" r:id="rId70"/>
+    <hyperlink ref="O31" r:id="rId71"/>
+    <hyperlink ref="O32" r:id="rId72"/>
+    <hyperlink ref="O34" r:id="rId73"/>
+    <hyperlink ref="O38" r:id="rId74"/>
+    <hyperlink ref="O45" r:id="rId75"/>
+    <hyperlink ref="O46" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId58"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId77"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -467,15 +467,6 @@
     <t>Eng Drawings\7. Х-КПНв.2-500-7 Варшава</t>
   </si>
   <si>
-    <t>Х-КПНв.5-500-6 (Як для себе)</t>
-  </si>
-  <si>
-    <t>Bottle Drawings\6. Х-КПНв.2-500-6 (Як для себе)</t>
-  </si>
-  <si>
-    <t>Maps Package\6. Х-КПНв.5-500-6 (Як для себе)</t>
-  </si>
-  <si>
     <t>320±10</t>
   </si>
   <si>
@@ -507,6 +498,15 @@
   </si>
   <si>
     <t>Eng Drawings\12. LONG-NECK Х-КПНв.5-500-12</t>
+  </si>
+  <si>
+    <t>Maps Package\6. Х-КПНв.5-500-6 (ППБ)</t>
+  </si>
+  <si>
+    <t>Х-КПНв.5-500-6 (ППБ)</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\6. Х-КПНв.2-500-6 (ППБ)</t>
   </si>
 </sst>
 </file>
@@ -1230,10 +1230,10 @@
   <dimension ref="B4:AC196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="P51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R59" sqref="R59"/>
+      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1351,7 +1351,7 @@
         <v>20</v>
       </c>
       <c r="Q6" s="26"/>
-      <c r="R6" s="26" t="s">
+      <c r="R6" s="25" t="s">
         <v>42</v>
       </c>
       <c r="S6" s="1"/>
@@ -1393,7 +1393,7 @@
       <c r="Q7" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="R7" s="33" t="s">
+      <c r="R7" s="32" t="s">
         <v>120</v>
       </c>
       <c r="S7" s="1"/>
@@ -1433,7 +1433,7 @@
         <v>21</v>
       </c>
       <c r="Q8" s="28"/>
-      <c r="R8" s="28" t="s">
+      <c r="R8" s="27" t="s">
         <v>43</v>
       </c>
       <c r="S8" s="1"/>
@@ -1475,7 +1475,7 @@
       <c r="Q9" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="R9" s="28" t="s">
+      <c r="R9" s="27" t="s">
         <v>86</v>
       </c>
       <c r="S9" s="1"/>
@@ -1517,7 +1517,7 @@
       <c r="Q10" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="R10" s="28" t="s">
+      <c r="R10" s="27" t="s">
         <v>109</v>
       </c>
       <c r="S10" s="1"/>
@@ -1545,7 +1545,7 @@
       <c r="O11" s="17"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
+      <c r="R11" s="27"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
@@ -1555,7 +1555,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1565,7 +1565,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>26</v>
@@ -1580,12 +1580,12 @@
         <v>106</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="R12" s="28"/>
+        <v>155</v>
+      </c>
+      <c r="R12" s="27"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
@@ -1625,7 +1625,7 @@
       <c r="Q13" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="R13" s="28" t="s">
+      <c r="R13" s="27" t="s">
         <v>143</v>
       </c>
       <c r="S13" s="1"/>
@@ -1651,7 +1651,7 @@
       <c r="O14" s="24"/>
       <c r="P14" s="27"/>
       <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
+      <c r="R14" s="27"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
@@ -1677,7 +1677,7 @@
       <c r="O15" s="17"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
+      <c r="R15" s="9"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
@@ -1704,13 +1704,13 @@
         <v>16</v>
       </c>
       <c r="P16" s="27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="R16" s="28" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="R16" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -1751,7 +1751,7 @@
       <c r="Q17" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="R17" s="28" t="s">
+      <c r="R17" s="27" t="s">
         <v>128</v>
       </c>
       <c r="S17" s="1"/>
@@ -1776,7 +1776,7 @@
       <c r="O18" s="17"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
+      <c r="R18" s="9"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
@@ -1796,7 +1796,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>114</v>
@@ -1811,13 +1811,13 @@
         <v>106</v>
       </c>
       <c r="P19" s="27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="R19" s="28" t="s">
-        <v>157</v>
+        <v>153</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>154</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -1841,7 +1841,7 @@
       <c r="O20" s="17"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
+      <c r="R20" s="9"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
@@ -1881,7 +1881,7 @@
       <c r="Q21" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="R21" s="28" t="s">
+      <c r="R21" s="27" t="s">
         <v>85</v>
       </c>
       <c r="S21" s="1"/>
@@ -1909,7 +1909,7 @@
       <c r="O22" s="17"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
+      <c r="R22" s="9"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
@@ -1939,7 +1939,7 @@
       <c r="Q23" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="R23" s="28" t="s">
+      <c r="R23" s="27" t="s">
         <v>90</v>
       </c>
       <c r="S23" s="1"/>
@@ -1967,7 +1967,7 @@
       <c r="O24" s="17"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
+      <c r="R24" s="9"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
@@ -2007,7 +2007,7 @@
       <c r="Q25" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="R25" s="28" t="s">
+      <c r="R25" s="27" t="s">
         <v>78</v>
       </c>
       <c r="S25" s="1"/>
@@ -2035,7 +2035,7 @@
       <c r="O26" s="17"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
+      <c r="R26" s="9"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
@@ -2075,7 +2075,7 @@
       <c r="Q27" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="R27" s="28" t="s">
+      <c r="R27" s="27" t="s">
         <v>123</v>
       </c>
       <c r="S27" s="1"/>
@@ -2103,7 +2103,7 @@
       <c r="O28" s="17"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
+      <c r="R28" s="9"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
@@ -2129,7 +2129,7 @@
       <c r="O29" s="17"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
+      <c r="R29" s="9"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
@@ -2636,13 +2636,13 @@
         <v>137</v>
       </c>
       <c r="P45" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q45" s="28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="R45" s="27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -5928,36 +5928,36 @@
     <hyperlink ref="P13" r:id="rId44"/>
     <hyperlink ref="Q13" r:id="rId45"/>
     <hyperlink ref="R13" r:id="rId46"/>
-    <hyperlink ref="P12" r:id="rId47"/>
-    <hyperlink ref="Q12" r:id="rId48"/>
-    <hyperlink ref="P16" r:id="rId49"/>
-    <hyperlink ref="Q16" r:id="rId50"/>
-    <hyperlink ref="R16" r:id="rId51"/>
-    <hyperlink ref="P45" r:id="rId52"/>
-    <hyperlink ref="Q45" r:id="rId53"/>
-    <hyperlink ref="R45" r:id="rId54"/>
-    <hyperlink ref="P19" r:id="rId55"/>
-    <hyperlink ref="Q19" r:id="rId56"/>
-    <hyperlink ref="R19" r:id="rId57"/>
-    <hyperlink ref="O10" r:id="rId58"/>
-    <hyperlink ref="O6" r:id="rId59"/>
-    <hyperlink ref="O7" r:id="rId60"/>
-    <hyperlink ref="O8" r:id="rId61"/>
-    <hyperlink ref="O9" r:id="rId62"/>
-    <hyperlink ref="O12" r:id="rId63"/>
-    <hyperlink ref="O13" r:id="rId64"/>
-    <hyperlink ref="O16" r:id="rId65"/>
-    <hyperlink ref="O17" r:id="rId66"/>
-    <hyperlink ref="O19" r:id="rId67"/>
-    <hyperlink ref="O21" r:id="rId68"/>
-    <hyperlink ref="O25" r:id="rId69"/>
-    <hyperlink ref="O27" r:id="rId70"/>
-    <hyperlink ref="O31" r:id="rId71"/>
-    <hyperlink ref="O32" r:id="rId72"/>
-    <hyperlink ref="O34" r:id="rId73"/>
-    <hyperlink ref="O38" r:id="rId74"/>
-    <hyperlink ref="O45" r:id="rId75"/>
-    <hyperlink ref="O46" r:id="rId76"/>
+    <hyperlink ref="P16" r:id="rId47"/>
+    <hyperlink ref="Q16" r:id="rId48"/>
+    <hyperlink ref="R16" r:id="rId49"/>
+    <hyperlink ref="P45" r:id="rId50"/>
+    <hyperlink ref="Q45" r:id="rId51"/>
+    <hyperlink ref="R45" r:id="rId52"/>
+    <hyperlink ref="P19" r:id="rId53"/>
+    <hyperlink ref="Q19" r:id="rId54"/>
+    <hyperlink ref="R19" r:id="rId55"/>
+    <hyperlink ref="O10" r:id="rId56"/>
+    <hyperlink ref="O6" r:id="rId57"/>
+    <hyperlink ref="O7" r:id="rId58"/>
+    <hyperlink ref="O8" r:id="rId59"/>
+    <hyperlink ref="O9" r:id="rId60"/>
+    <hyperlink ref="O12" r:id="rId61"/>
+    <hyperlink ref="O13" r:id="rId62"/>
+    <hyperlink ref="O16" r:id="rId63"/>
+    <hyperlink ref="O17" r:id="rId64"/>
+    <hyperlink ref="O19" r:id="rId65"/>
+    <hyperlink ref="O21" r:id="rId66"/>
+    <hyperlink ref="O25" r:id="rId67"/>
+    <hyperlink ref="O27" r:id="rId68"/>
+    <hyperlink ref="O31" r:id="rId69"/>
+    <hyperlink ref="O32" r:id="rId70"/>
+    <hyperlink ref="O34" r:id="rId71"/>
+    <hyperlink ref="O38" r:id="rId72"/>
+    <hyperlink ref="O45" r:id="rId73"/>
+    <hyperlink ref="O46" r:id="rId74"/>
+    <hyperlink ref="Q12" r:id="rId75"/>
+    <hyperlink ref="P12" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId77"/>

--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="161">
   <si>
     <t>No</t>
   </si>
@@ -122,12 +122,6 @@
     <t>520±10</t>
   </si>
   <si>
-    <t>63±5</t>
-  </si>
-  <si>
-    <t>542±10</t>
-  </si>
-  <si>
     <t>51±5</t>
   </si>
   <si>
@@ -242,9 +236,6 @@
     <t>18. DESANT Х-КПНв.2-500-18</t>
   </si>
   <si>
-    <t>17. NRW tvist X-ВКП-500-17</t>
-  </si>
-  <si>
     <t>16. Хмель Х-КПНн-500-16</t>
   </si>
   <si>
@@ -507,6 +498,24 @@
   </si>
   <si>
     <t>Bottle Drawings\6. Х-КПНв.2-500-6 (ППБ)</t>
+  </si>
+  <si>
+    <t>17. NRW twist X-ВКП-500-17</t>
+  </si>
+  <si>
+    <t>340±10</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\8. New ALIVARIA X-КПНв.3-500-8</t>
+  </si>
+  <si>
+    <t>Maps Package\8. New ALIVARIA X-КПНв.3-500-8</t>
+  </si>
+  <si>
+    <t>Eng Drawings\8. New ALIVARIA X-КПНв.3-500-8</t>
+  </si>
+  <si>
+    <t>Количество изделий:</t>
   </si>
 </sst>
 </file>
@@ -547,7 +556,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -803,12 +812,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -879,9 +901,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -911,6 +930,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1227,13 +1255,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:AC196"/>
+  <dimension ref="B3:AC194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1251,7 +1279,18 @@
     <col min="18" max="18" width="46.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="C3" s="36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="36">
+        <f>COUNTA($C6:$C72)</f>
+        <v>40</v>
+      </c>
+      <c r="D4" s="34"/>
+    </row>
     <row r="5" spans="2:29" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>0</v>
@@ -1299,10 +1338,10 @@
         <v>17</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -1344,68 +1383,66 @@
       <c r="N6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="O6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="25" t="s">
-        <v>42</v>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="29">
-        <f>B6+1</f>
+      <c r="B7" s="28">
         <v>2</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="9" t="s">
+      <c r="O7" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="P7" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="Q7" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="R7" s="31" t="s">
         <v>117</v>
-      </c>
-      <c r="P7" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q7" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="R7" s="32" t="s">
-        <v>120</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="29">
-        <f t="shared" ref="B8:B52" si="0">B7+1</f>
+      <c r="B8" s="28">
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -1415,37 +1452,38 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="27" t="s">
-        <v>43</v>
+        <v>98</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="R8" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="29">
-        <f t="shared" si="0"/>
+      <c r="B9" s="28">
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -1454,40 +1492,39 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>101</v>
+      <c r="K9" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>109</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q9" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="R9" s="27" t="s">
-        <v>86</v>
+        <v>103</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q9" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>106</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="29">
-        <f t="shared" si="0"/>
+      <c r="B10" s="28">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1496,40 +1533,29 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q10" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="R10" s="27" t="s">
-        <v>109</v>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="29">
-        <f t="shared" si="0"/>
+      <c r="B11" s="28">
         <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -1538,24 +1564,37 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="27"/>
+      <c r="K11" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q11" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="R11" s="26"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="29">
-        <f t="shared" si="0"/>
+      <c r="B12" s="28">
         <v>7</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1564,38 +1603,39 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="9" t="s">
+      <c r="K12" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="P12" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q12" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="R12" s="27"/>
+      <c r="O12" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="R12" s="26" t="s">
+        <v>140</v>
+      </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B13" s="29">
-        <f t="shared" si="0"/>
+      <c r="B13" s="28">
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -1605,10 +1645,10 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>27</v>
@@ -1616,27 +1656,28 @@
       <c r="N13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q13" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="R13" s="27" t="s">
-        <v>143</v>
+      <c r="O13" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q13" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="R13" s="26" t="s">
+        <v>159</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="29">
-        <f t="shared" si="0"/>
+      <c r="B14" s="28">
         <v>9</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1648,16 +1689,23 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="27"/>
+      <c r="O14" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="R14" s="26" t="s">
+        <v>144</v>
+      </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="29">
-        <f t="shared" si="0"/>
+      <c r="B15" s="28">
         <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1670,24 +1718,36 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="9"/>
+      <c r="K15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="R15" s="26" t="s">
+        <v>125</v>
+      </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="29">
-        <f t="shared" si="0"/>
+      <c r="B16" s="28">
         <v>11</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -1700,28 +1760,19 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="P16" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q16" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="R16" s="27" t="s">
-        <v>147</v>
-      </c>
+      <c r="O16" s="17"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="9"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="29">
-        <f t="shared" si="0"/>
+      <c r="B17" s="28">
         <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -1731,35 +1782,34 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="O17" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q17" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="R17" s="27" t="s">
-        <v>128</v>
+        <v>28</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="R17" s="26" t="s">
+        <v>151</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="29">
-        <f t="shared" si="0"/>
+      <c r="B18" s="28">
         <v>13</v>
       </c>
       <c r="D18" s="9"/>
@@ -1781,12 +1831,11 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="29">
-        <f t="shared" si="0"/>
+      <c r="B19" s="28">
         <v>14</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -1796,10 +1845,10 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>27</v>
@@ -1807,25 +1856,27 @@
       <c r="N19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q19" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="R19" s="27" t="s">
-        <v>154</v>
+      <c r="O19" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="R19" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="29">
-        <f t="shared" si="0"/>
+      <c r="B20" s="28">
         <v>15</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -1846,12 +1897,11 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="29">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="B21" s="28">
+        <v>15</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -1860,40 +1910,29 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O21" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q21" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="R21" s="27" t="s">
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="26" t="s">
         <v>85</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="R21" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="29">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="B22" s="28">
+        <v>16</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -1914,12 +1953,11 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="29">
-        <f t="shared" si="0"/>
-        <v>18</v>
+      <c r="B23" s="28">
+        <v>16</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -1928,30 +1966,39 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q23" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="R23" s="27" t="s">
-        <v>90</v>
+      <c r="K23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="R23" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="29">
-        <f t="shared" si="0"/>
-        <v>19</v>
+      <c r="B24" s="28">
+        <v>17</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -1972,12 +2019,11 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="29">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="B25" s="28">
+        <v>18</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -1987,39 +2033,38 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="O25" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q25" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="R25" s="27" t="s">
-        <v>78</v>
+        <v>28</v>
+      </c>
+      <c r="O25" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="R25" s="26" t="s">
+        <v>120</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="29">
-        <f t="shared" si="0"/>
-        <v>21</v>
+      <c r="B26" s="28">
+        <v>19</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -2040,12 +2085,11 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="29">
-        <f t="shared" si="0"/>
-        <v>22</v>
+      <c r="B27" s="28">
+        <v>20</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -2054,41 +2098,22 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O27" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P27" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q27" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="R27" s="27" t="s">
-        <v>123</v>
-      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="9"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="29">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="B28" s="28">
+        <v>21</v>
+      </c>
+      <c r="C28" s="8"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -2108,12 +2133,11 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="29">
-        <f t="shared" si="0"/>
-        <v>24</v>
+      <c r="B29" s="28">
+        <v>22</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -2122,23 +2146,40 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="9"/>
+      <c r="K29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q29" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="R29" s="26" t="s">
+        <v>102</v>
+      </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="29">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C30" s="8"/>
+      <c r="B30" s="28">
+        <v>23</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -2146,24 +2187,39 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="9"/>
+      <c r="K30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="29">
-        <f t="shared" si="0"/>
-        <v>26</v>
+      <c r="B31" s="28">
+        <v>24</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -2172,82 +2228,70 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O31" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="P31" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q31" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="R31" s="27" t="s">
-        <v>105</v>
-      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="9"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="29">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>64</v>
+      <c r="B32" s="28">
+        <v>25</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="9">
+        <v>85.7</v>
+      </c>
+      <c r="G32" s="9">
+        <v>66.7</v>
+      </c>
+      <c r="H32" s="9">
+        <v>2101200016</v>
+      </c>
+      <c r="I32" s="9">
+        <v>92.1</v>
+      </c>
+      <c r="J32" s="9">
+        <v>2101200097</v>
+      </c>
       <c r="K32" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="L32" s="9">
+        <v>54.5</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O32" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P32" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q32" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="R32" s="27" t="s">
-        <v>45</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="26"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="29">
-        <f t="shared" si="0"/>
-        <v>28</v>
+      <c r="B33" s="28">
+        <v>26</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -2268,60 +2312,34 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="29">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>62</v>
-      </c>
+      <c r="B34" s="28">
+        <v>27</v>
+      </c>
+      <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="9">
-        <v>85.7</v>
-      </c>
-      <c r="G34" s="9">
-        <v>66.7</v>
-      </c>
-      <c r="H34" s="9">
-        <v>2101200016</v>
-      </c>
-      <c r="I34" s="9">
-        <v>92.1</v>
-      </c>
-      <c r="J34" s="9">
-        <v>2101200097</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="9">
-        <v>54.5</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O34" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="27"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="9"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="29">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="B35" s="28">
+        <v>28</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -2342,11 +2360,12 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="29">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C36" s="8"/>
+      <c r="B36" s="28">
+        <v>29</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -2354,24 +2373,39 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="9"/>
+      <c r="K36" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O36" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="P36" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="R36" s="26" t="s">
+        <v>90</v>
+      </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="29">
-        <f t="shared" si="0"/>
-        <v>32</v>
+      <c r="B37" s="28">
+        <v>30</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -2392,12 +2426,11 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="29">
-        <f t="shared" si="0"/>
-        <v>33</v>
+      <c r="B38" s="28">
+        <v>31</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -2406,40 +2439,23 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O38" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="P38" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q38" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="R38" s="27" t="s">
-        <v>93</v>
-      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="9"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="29">
-        <f t="shared" si="0"/>
-        <v>34</v>
+      <c r="B39" s="28">
+        <v>32</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -2460,12 +2476,11 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="29">
-        <f t="shared" si="0"/>
-        <v>35</v>
+      <c r="B40" s="28">
+        <v>33</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -2474,24 +2489,39 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="9"/>
+      <c r="K40" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="O40" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="P40" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q40" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="R40" s="26" t="s">
+        <v>133</v>
+      </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="29">
-        <f t="shared" si="0"/>
-        <v>36</v>
+      <c r="B41" s="28">
+        <v>34</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -2512,12 +2542,11 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="29">
-        <f t="shared" si="0"/>
-        <v>37</v>
+      <c r="B42" s="28">
+        <v>35</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -2526,40 +2555,23 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="N42" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="O42" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="P42" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q42" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="R42" s="27" t="s">
-        <v>136</v>
-      </c>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="9"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="29">
-        <f t="shared" si="0"/>
-        <v>38</v>
+      <c r="B43" s="28">
+        <v>36</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -2568,24 +2580,39 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="9"/>
+      <c r="K43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O43" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="P43" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q43" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="R43" s="26" t="s">
+        <v>147</v>
+      </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="29">
-        <f t="shared" si="0"/>
-        <v>39</v>
+      <c r="B44" s="28">
+        <v>37</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -2594,24 +2621,36 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="9"/>
+      <c r="K44" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="P44" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q44" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="R44" s="26" t="s">
+        <v>137</v>
+      </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="29">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>52</v>
+      <c r="B45" s="28">
+        <v>38</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -2620,79 +2659,62 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O45" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="P45" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q45" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="R45" s="27" t="s">
-        <v>150</v>
-      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="9"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="29">
-        <f t="shared" si="0"/>
-        <v>41</v>
+      <c r="B46" s="28">
+        <v>39</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="O46" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="P46" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q46" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="R46" s="27" t="s">
-        <v>140</v>
-      </c>
+      <c r="E46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="9">
+        <v>85.7</v>
+      </c>
+      <c r="G46" s="9">
+        <v>66.7</v>
+      </c>
+      <c r="H46" s="9">
+        <v>2101200016</v>
+      </c>
+      <c r="I46" s="9">
+        <v>92.1</v>
+      </c>
+      <c r="J46" s="9">
+        <v>2101200097</v>
+      </c>
+      <c r="K46" s="9">
+        <v>320</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="9"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="29">
-        <f t="shared" si="0"/>
-        <v>42</v>
+      <c r="B47" s="28">
+        <v>40</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -2713,35 +2735,20 @@
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="29">
-        <f t="shared" si="0"/>
-        <v>43</v>
+      <c r="B48" s="28">
+        <v>41</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="9">
-        <v>85.7</v>
-      </c>
-      <c r="G48" s="9">
-        <v>66.7</v>
-      </c>
-      <c r="H48" s="9">
-        <v>2101200016</v>
-      </c>
-      <c r="I48" s="9">
-        <v>92.1</v>
-      </c>
-      <c r="J48" s="9">
-        <v>2101200097</v>
-      </c>
-      <c r="K48" s="9">
-        <v>320</v>
-      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -2753,12 +2760,11 @@
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B49" s="29">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>49</v>
+      <c r="B49" s="28">
+        <v>42</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -2779,12 +2785,11 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B50" s="29">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>48</v>
+      <c r="B50" s="28">
+        <v>43</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -2805,13 +2810,8 @@
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B51" s="29">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -2831,13 +2831,8 @@
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B52" s="29">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -3255,66 +3250,66 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B72" s="7"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="9"/>
+    <row r="72" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="11"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="12"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B73" s="7"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="17"/>
-      <c r="R73" s="9"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="11"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="12"/>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
@@ -4824,9 +4819,9 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
-      <c r="P146" s="19"/>
-      <c r="Q146" s="19"/>
-      <c r="R146" s="19"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
@@ -4845,9 +4840,9 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
-      <c r="P147" s="19"/>
-      <c r="Q147" s="19"/>
-      <c r="R147" s="19"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
@@ -5838,128 +5833,90 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
-      <c r="J195" s="1"/>
-      <c r="K195" s="1"/>
-      <c r="L195" s="1"/>
-      <c r="M195" s="1"/>
-      <c r="N195" s="1"/>
-      <c r="O195" s="1"/>
-      <c r="P195" s="1"/>
-      <c r="Q195" s="1"/>
-      <c r="R195" s="1"/>
-      <c r="S195" s="1"/>
-      <c r="T195" s="1"/>
-    </row>
-    <row r="196" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
-      <c r="H196" s="1"/>
-      <c r="I196" s="1"/>
-      <c r="J196" s="1"/>
-      <c r="K196" s="1"/>
-      <c r="L196" s="1"/>
-      <c r="M196" s="1"/>
-      <c r="N196" s="1"/>
-      <c r="O196" s="1"/>
-      <c r="P196" s="1"/>
-      <c r="Q196" s="1"/>
-      <c r="R196" s="1"/>
-      <c r="S196" s="1"/>
-      <c r="T196" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P6" r:id="rId1"/>
-    <hyperlink ref="P8" r:id="rId2"/>
-    <hyperlink ref="P32" r:id="rId3"/>
-    <hyperlink ref="Q32" r:id="rId4"/>
-    <hyperlink ref="R6" r:id="rId5"/>
-    <hyperlink ref="R8" r:id="rId6"/>
-    <hyperlink ref="R32" r:id="rId7"/>
-    <hyperlink ref="P25" r:id="rId8"/>
-    <hyperlink ref="Q25" r:id="rId9"/>
-    <hyperlink ref="R25" r:id="rId10"/>
-    <hyperlink ref="P21" r:id="rId11"/>
-    <hyperlink ref="Q21" r:id="rId12"/>
-    <hyperlink ref="R21" r:id="rId13"/>
-    <hyperlink ref="R9" r:id="rId14"/>
-    <hyperlink ref="P9" r:id="rId15"/>
-    <hyperlink ref="P23" r:id="rId16"/>
-    <hyperlink ref="Q23" r:id="rId17"/>
-    <hyperlink ref="R23" r:id="rId18"/>
-    <hyperlink ref="P38" r:id="rId19"/>
-    <hyperlink ref="Q38" r:id="rId20"/>
-    <hyperlink ref="R38" r:id="rId21"/>
-    <hyperlink ref="Q9" r:id="rId22"/>
-    <hyperlink ref="P31" r:id="rId23"/>
-    <hyperlink ref="Q31" r:id="rId24"/>
-    <hyperlink ref="R31" r:id="rId25"/>
-    <hyperlink ref="P10" r:id="rId26"/>
-    <hyperlink ref="Q10" r:id="rId27"/>
-    <hyperlink ref="R10" r:id="rId28"/>
-    <hyperlink ref="P7" r:id="rId29"/>
-    <hyperlink ref="Q7" r:id="rId30"/>
-    <hyperlink ref="R7" r:id="rId31"/>
-    <hyperlink ref="P27" r:id="rId32"/>
-    <hyperlink ref="Q27" r:id="rId33"/>
-    <hyperlink ref="R27" r:id="rId34"/>
-    <hyperlink ref="P17" r:id="rId35"/>
-    <hyperlink ref="Q17" r:id="rId36"/>
-    <hyperlink ref="R17" r:id="rId37"/>
-    <hyperlink ref="P42" r:id="rId38"/>
-    <hyperlink ref="Q42" r:id="rId39"/>
-    <hyperlink ref="R42" r:id="rId40"/>
-    <hyperlink ref="P46" r:id="rId41"/>
-    <hyperlink ref="Q46" r:id="rId42"/>
-    <hyperlink ref="R46" r:id="rId43"/>
-    <hyperlink ref="P13" r:id="rId44"/>
-    <hyperlink ref="Q13" r:id="rId45"/>
-    <hyperlink ref="R13" r:id="rId46"/>
-    <hyperlink ref="P16" r:id="rId47"/>
-    <hyperlink ref="Q16" r:id="rId48"/>
-    <hyperlink ref="R16" r:id="rId49"/>
-    <hyperlink ref="P45" r:id="rId50"/>
-    <hyperlink ref="Q45" r:id="rId51"/>
-    <hyperlink ref="R45" r:id="rId52"/>
-    <hyperlink ref="P19" r:id="rId53"/>
-    <hyperlink ref="Q19" r:id="rId54"/>
-    <hyperlink ref="R19" r:id="rId55"/>
-    <hyperlink ref="O10" r:id="rId56"/>
-    <hyperlink ref="O6" r:id="rId57"/>
-    <hyperlink ref="O7" r:id="rId58"/>
-    <hyperlink ref="O8" r:id="rId59"/>
-    <hyperlink ref="O9" r:id="rId60"/>
-    <hyperlink ref="O12" r:id="rId61"/>
-    <hyperlink ref="O13" r:id="rId62"/>
-    <hyperlink ref="O16" r:id="rId63"/>
-    <hyperlink ref="O17" r:id="rId64"/>
-    <hyperlink ref="O19" r:id="rId65"/>
-    <hyperlink ref="O21" r:id="rId66"/>
-    <hyperlink ref="O25" r:id="rId67"/>
-    <hyperlink ref="O27" r:id="rId68"/>
-    <hyperlink ref="O31" r:id="rId69"/>
-    <hyperlink ref="O32" r:id="rId70"/>
-    <hyperlink ref="O34" r:id="rId71"/>
-    <hyperlink ref="O38" r:id="rId72"/>
-    <hyperlink ref="O45" r:id="rId73"/>
-    <hyperlink ref="O46" r:id="rId74"/>
-    <hyperlink ref="Q12" r:id="rId75"/>
-    <hyperlink ref="P12" r:id="rId76"/>
+    <hyperlink ref="P30" r:id="rId2"/>
+    <hyperlink ref="Q30" r:id="rId3"/>
+    <hyperlink ref="R6" r:id="rId4"/>
+    <hyperlink ref="R30" r:id="rId5"/>
+    <hyperlink ref="P23" r:id="rId6"/>
+    <hyperlink ref="Q23" r:id="rId7"/>
+    <hyperlink ref="R23" r:id="rId8"/>
+    <hyperlink ref="P19" r:id="rId9"/>
+    <hyperlink ref="Q19" r:id="rId10"/>
+    <hyperlink ref="R19" r:id="rId11"/>
+    <hyperlink ref="R8" r:id="rId12"/>
+    <hyperlink ref="P8" r:id="rId13"/>
+    <hyperlink ref="P21" r:id="rId14"/>
+    <hyperlink ref="Q21" r:id="rId15"/>
+    <hyperlink ref="R21" r:id="rId16"/>
+    <hyperlink ref="P36" r:id="rId17"/>
+    <hyperlink ref="Q36" r:id="rId18"/>
+    <hyperlink ref="R36" r:id="rId19"/>
+    <hyperlink ref="Q8" r:id="rId20"/>
+    <hyperlink ref="P29" r:id="rId21"/>
+    <hyperlink ref="Q29" r:id="rId22"/>
+    <hyperlink ref="R29" r:id="rId23"/>
+    <hyperlink ref="P9" r:id="rId24"/>
+    <hyperlink ref="Q9" r:id="rId25"/>
+    <hyperlink ref="R9" r:id="rId26"/>
+    <hyperlink ref="P7" r:id="rId27"/>
+    <hyperlink ref="Q7" r:id="rId28"/>
+    <hyperlink ref="R7" r:id="rId29"/>
+    <hyperlink ref="P25" r:id="rId30"/>
+    <hyperlink ref="Q25" r:id="rId31"/>
+    <hyperlink ref="R25" r:id="rId32"/>
+    <hyperlink ref="P15" r:id="rId33"/>
+    <hyperlink ref="Q15" r:id="rId34"/>
+    <hyperlink ref="R15" r:id="rId35"/>
+    <hyperlink ref="P40" r:id="rId36"/>
+    <hyperlink ref="Q40" r:id="rId37"/>
+    <hyperlink ref="R40" r:id="rId38"/>
+    <hyperlink ref="P44" r:id="rId39"/>
+    <hyperlink ref="Q44" r:id="rId40"/>
+    <hyperlink ref="R44" r:id="rId41"/>
+    <hyperlink ref="P12" r:id="rId42"/>
+    <hyperlink ref="Q12" r:id="rId43"/>
+    <hyperlink ref="R12" r:id="rId44"/>
+    <hyperlink ref="P14" r:id="rId45"/>
+    <hyperlink ref="Q14" r:id="rId46"/>
+    <hyperlink ref="R14" r:id="rId47"/>
+    <hyperlink ref="P43" r:id="rId48"/>
+    <hyperlink ref="Q43" r:id="rId49"/>
+    <hyperlink ref="R43" r:id="rId50"/>
+    <hyperlink ref="P17" r:id="rId51"/>
+    <hyperlink ref="Q17" r:id="rId52"/>
+    <hyperlink ref="R17" r:id="rId53"/>
+    <hyperlink ref="O9" r:id="rId54"/>
+    <hyperlink ref="O6" r:id="rId55"/>
+    <hyperlink ref="O7" r:id="rId56"/>
+    <hyperlink ref="O8" r:id="rId57"/>
+    <hyperlink ref="O11" r:id="rId58"/>
+    <hyperlink ref="O12" r:id="rId59"/>
+    <hyperlink ref="O14" r:id="rId60"/>
+    <hyperlink ref="O15" r:id="rId61"/>
+    <hyperlink ref="O17" r:id="rId62"/>
+    <hyperlink ref="O19" r:id="rId63"/>
+    <hyperlink ref="O23" r:id="rId64"/>
+    <hyperlink ref="O25" r:id="rId65"/>
+    <hyperlink ref="O29" r:id="rId66"/>
+    <hyperlink ref="O30" r:id="rId67"/>
+    <hyperlink ref="O32" r:id="rId68"/>
+    <hyperlink ref="O36" r:id="rId69"/>
+    <hyperlink ref="O43" r:id="rId70"/>
+    <hyperlink ref="O44" r:id="rId71"/>
+    <hyperlink ref="Q11" r:id="rId72"/>
+    <hyperlink ref="P11" r:id="rId73"/>
+    <hyperlink ref="R10" r:id="rId74"/>
+    <hyperlink ref="P10" r:id="rId75"/>
+    <hyperlink ref="O10" r:id="rId76"/>
+    <hyperlink ref="O13" r:id="rId77"/>
+    <hyperlink ref="P13" r:id="rId78"/>
+    <hyperlink ref="Q13" r:id="rId79"/>
+    <hyperlink ref="R13" r:id="rId80"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId77"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId81"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="163">
   <si>
     <t>No</t>
   </si>
@@ -516,6 +516,12 @@
   </si>
   <si>
     <t>Количество изделий:</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\20. EURO Х-КПНв.2-500-20</t>
+  </si>
+  <si>
+    <t>Maps Package\20. EURO Х-КПНв.2-500-20</t>
   </si>
 </sst>
 </file>
@@ -1258,10 +1264,10 @@
   <dimension ref="B3:AC194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="P27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2103,8 +2109,12 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="17"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="17"/>
+      <c r="P27" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>162</v>
+      </c>
       <c r="R27" s="9"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -5915,8 +5925,10 @@
     <hyperlink ref="P13" r:id="rId78"/>
     <hyperlink ref="Q13" r:id="rId79"/>
     <hyperlink ref="R13" r:id="rId80"/>
+    <hyperlink ref="P27" r:id="rId81"/>
+    <hyperlink ref="Q27" r:id="rId82"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId81"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId83"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="180">
   <si>
     <t>No</t>
   </si>
@@ -522,6 +522,57 @@
   </si>
   <si>
     <t>Maps Package\20. EURO Х-КПНв.2-500-20</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\11. Х-КПНв.5-500-11 (Модерн)</t>
+  </si>
+  <si>
+    <t>Maps Package\11. Х-КПНв.5-500-11 (Модерн)</t>
+  </si>
+  <si>
+    <t>Eng Drawings\11. Х-КПНв.5-500-11 (Модерн)</t>
+  </si>
+  <si>
+    <t>Х-КПНв.5-500-11 (Модерн)</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\25. LIDA Х-КПНн-330-25</t>
+  </si>
+  <si>
+    <t>Maps Package\25. LIDA Х-КПНн-330-25</t>
+  </si>
+  <si>
+    <t>Eng Drawings\25. LIDA Х-КПНн-330-25</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\41. Х-К-700-41 GRAPE-ML.cdw для Инпэкс</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\26. Х-ВКП-500-26 Classic twist</t>
+  </si>
+  <si>
+    <t>Maps Package\26. Х-ВКП-500-26 Classic twist</t>
+  </si>
+  <si>
+    <t>350±10</t>
+  </si>
+  <si>
+    <t>58±5</t>
+  </si>
+  <si>
+    <t>525±10</t>
+  </si>
+  <si>
+    <t>Eng Drawings\26. Х-ВКП-500-26 Classic twist</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\35. Х-КПНн-500-35 AMBER PIWO</t>
+  </si>
+  <si>
+    <t>Maps Package\35. Х-КПНн-500-35 AMBER PIWO</t>
+  </si>
+  <si>
+    <t>Eng Drawings\35. Х-КПНн-500-35 AMBER PIWO</t>
   </si>
 </sst>
 </file>
@@ -554,15 +605,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -831,12 +888,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,6 +1013,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1264,10 +1338,10 @@
   <dimension ref="B3:AC194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="P27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q27" sqref="Q27"/>
+      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1280,7 +1354,7 @@
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="12.140625" customWidth="1"/>
     <col min="15" max="15" width="40.7109375" customWidth="1"/>
-    <col min="16" max="16" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="47.140625" customWidth="1"/>
     <col min="18" max="18" width="46.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1293,7 +1367,7 @@
     <row r="4" spans="2:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="36">
         <f>COUNTA($C6:$C72)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="34"/>
     </row>
@@ -1755,6 +1829,9 @@
       <c r="B16" s="28">
         <v>11</v>
       </c>
+      <c r="C16" s="37" t="s">
+        <v>166</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -1762,14 +1839,30 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="9"/>
+      <c r="K16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="R16" s="26" t="s">
+        <v>165</v>
+      </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
@@ -1920,7 +2013,9 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="17"/>
+      <c r="O21" s="27" t="s">
+        <v>16</v>
+      </c>
       <c r="P21" s="26" t="s">
         <v>85</v>
       </c>
@@ -2083,7 +2178,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
-      <c r="O26" s="17"/>
+      <c r="O26" s="33"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="17"/>
       <c r="R26" s="9"/>
@@ -2108,7 +2203,9 @@
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
-      <c r="O27" s="17"/>
+      <c r="O27" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="P27" s="26" t="s">
         <v>161</v>
       </c>
@@ -2249,8 +2346,8 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="28">
+    <row r="32" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="38">
         <v>25</v>
       </c>
       <c r="C32" s="23" t="s">
@@ -2290,9 +2387,15 @@
       <c r="O32" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="26"/>
+      <c r="P32" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q32" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="R32" s="26" t="s">
+        <v>169</v>
+      </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
@@ -2310,14 +2413,30 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="9"/>
+      <c r="K33" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="O33" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P33" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="R33" s="26" t="s">
+        <v>176</v>
+      </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
@@ -2569,10 +2688,18 @@
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="9"/>
+      <c r="O42" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q42" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="R42" s="26" t="s">
+        <v>179</v>
+      </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
@@ -2758,12 +2885,24 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="9"/>
+      <c r="K48" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="O48" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="P48" s="26" t="s">
+        <v>170</v>
+      </c>
       <c r="Q48" s="17"/>
       <c r="R48" s="9"/>
       <c r="S48" s="1"/>
@@ -5927,8 +6066,26 @@
     <hyperlink ref="R13" r:id="rId80"/>
     <hyperlink ref="P27" r:id="rId81"/>
     <hyperlink ref="Q27" r:id="rId82"/>
+    <hyperlink ref="P16" r:id="rId83"/>
+    <hyperlink ref="Q16" r:id="rId84"/>
+    <hyperlink ref="R16" r:id="rId85"/>
+    <hyperlink ref="O16" r:id="rId86"/>
+    <hyperlink ref="O21" r:id="rId87"/>
+    <hyperlink ref="P32" r:id="rId88"/>
+    <hyperlink ref="Q32" r:id="rId89"/>
+    <hyperlink ref="R32" r:id="rId90"/>
+    <hyperlink ref="P48" r:id="rId91"/>
+    <hyperlink ref="O27" r:id="rId92"/>
+    <hyperlink ref="O33" r:id="rId93"/>
+    <hyperlink ref="P33" r:id="rId94"/>
+    <hyperlink ref="Q33" r:id="rId95"/>
+    <hyperlink ref="R33" r:id="rId96"/>
+    <hyperlink ref="O42" r:id="rId97"/>
+    <hyperlink ref="P42" r:id="rId98"/>
+    <hyperlink ref="Q42" r:id="rId99"/>
+    <hyperlink ref="R42" r:id="rId100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId83"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId101"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -605,18 +605,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="21">
@@ -1017,7 +1011,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1338,10 +1332,10 @@
   <dimension ref="B3:AC194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="O27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="186">
   <si>
     <t>No</t>
   </si>
@@ -573,6 +573,24 @@
   </si>
   <si>
     <t>Eng Drawings\35. Х-КПНн-500-35 AMBER PIWO</t>
+  </si>
+  <si>
+    <t>Maps Package\41. Х-К-700-41 GRAPE-ML.cdw для Инпэкс</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\34. Alivaria 1864 X-КПНн-500-34</t>
+  </si>
+  <si>
+    <t>Maps Package\34. Alivaria 1864 X-КПНн-500-34</t>
+  </si>
+  <si>
+    <t>Eng Drawings\34. Alivaria 1864 X-КПНн-500-34</t>
+  </si>
+  <si>
+    <t>63±5</t>
+  </si>
+  <si>
+    <t>542±10</t>
   </si>
 </sst>
 </file>
@@ -1332,10 +1350,10 @@
   <dimension ref="B3:AC194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="O27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="H27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1349,7 +1367,7 @@
     <col min="14" max="14" width="12.140625" customWidth="1"/>
     <col min="15" max="15" width="40.7109375" customWidth="1"/>
     <col min="16" max="16" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="47.140625" customWidth="1"/>
+    <col min="17" max="17" width="52" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="46.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2653,14 +2671,30 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="9"/>
+      <c r="K41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="O41" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q41" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="R41" s="26" t="s">
+        <v>183</v>
+      </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
@@ -2678,10 +2712,18 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
+      <c r="K42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="O42" s="27" t="s">
         <v>16</v>
       </c>
@@ -2897,7 +2939,9 @@
       <c r="P48" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="Q48" s="17"/>
+      <c r="Q48" s="27" t="s">
+        <v>180</v>
+      </c>
       <c r="R48" s="9"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -6078,8 +6122,13 @@
     <hyperlink ref="P42" r:id="rId98"/>
     <hyperlink ref="Q42" r:id="rId99"/>
     <hyperlink ref="R42" r:id="rId100"/>
+    <hyperlink ref="Q48" r:id="rId101"/>
+    <hyperlink ref="O41" r:id="rId102"/>
+    <hyperlink ref="P41" r:id="rId103"/>
+    <hyperlink ref="Q41" r:id="rId104"/>
+    <hyperlink ref="R41" r:id="rId105"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId101"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId106"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="190">
   <si>
     <t>No</t>
   </si>
@@ -591,6 +591,18 @@
   </si>
   <si>
     <t>542±10</t>
+  </si>
+  <si>
+    <t>Венчик КПНв.1 ТУ BY 810000071.001-2009</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\31. Х-КПНв.1-500-31 KULT</t>
+  </si>
+  <si>
+    <t>Maps Package\31. Х-КПНв.1-500-31 KULT</t>
+  </si>
+  <si>
+    <t>Eng Drawings\31. Х-КПНв.1-500-31 KULT</t>
   </si>
 </sst>
 </file>
@@ -916,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1031,6 +1043,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1350,10 +1365,10 @@
   <dimension ref="B3:AC194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="H27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="O27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M47" sqref="M47"/>
+      <selection pane="bottomRight" activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2580,14 +2595,30 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="9"/>
+      <c r="K38" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="P38" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q38" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="R38" s="26" t="s">
+        <v>189</v>
+      </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
@@ -6127,8 +6158,12 @@
     <hyperlink ref="P41" r:id="rId103"/>
     <hyperlink ref="Q41" r:id="rId104"/>
     <hyperlink ref="R41" r:id="rId105"/>
+    <hyperlink ref="O38" r:id="rId106"/>
+    <hyperlink ref="P38" r:id="rId107"/>
+    <hyperlink ref="Q38" r:id="rId108"/>
+    <hyperlink ref="R38" r:id="rId109"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId106"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId110"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="195">
   <si>
     <t>No</t>
   </si>
@@ -603,6 +603,21 @@
   </si>
   <si>
     <t>Eng Drawings\31. Х-КПНв.1-500-31 KULT</t>
+  </si>
+  <si>
+    <t>360±15</t>
+  </si>
+  <si>
+    <t>40±5</t>
+  </si>
+  <si>
+    <t>568±10</t>
+  </si>
+  <si>
+    <t>588±10</t>
+  </si>
+  <si>
+    <t>52±5</t>
   </si>
 </sst>
 </file>
@@ -1365,10 +1380,10 @@
   <dimension ref="B3:AC194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="O27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q38" sqref="Q38"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6:N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1640,10 +1655,18 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>185</v>
+      </c>
       <c r="O10" s="26" t="s">
         <v>16</v>
       </c>
@@ -1752,7 +1775,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>77</v>
@@ -1792,10 +1815,18 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="K14" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="O14" s="27" t="s">
         <v>16</v>
       </c>
@@ -1971,10 +2002,10 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>27</v>
@@ -2036,10 +2067,18 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
+      <c r="K21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="O21" s="27" t="s">
         <v>16</v>
       </c>
@@ -2226,10 +2265,18 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
+      <c r="K27" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="O27" s="33" t="s">
         <v>30</v>
       </c>
@@ -2373,7 +2420,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="38">
         <v>25</v>
       </c>
@@ -2411,7 +2458,7 @@
       <c r="N32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O32" s="27" t="s">
+      <c r="O32" s="26" t="s">
         <v>16</v>
       </c>
       <c r="P32" s="26" t="s">
@@ -2452,7 +2499,7 @@
       <c r="N33" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="O33" s="25" t="s">
+      <c r="O33" s="31" t="s">
         <v>13</v>
       </c>
       <c r="P33" s="26" t="s">
@@ -2900,9 +2947,7 @@
       <c r="J46" s="9">
         <v>2101200097</v>
       </c>
-      <c r="K46" s="9">
-        <v>320</v>
-      </c>
+      <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>

--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="196">
   <si>
     <t>No</t>
   </si>
@@ -618,6 +618,9 @@
   </si>
   <si>
     <t>52±5</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\17. NRW tvist X-ВКП-500-17</t>
   </si>
 </sst>
 </file>
@@ -1380,10 +1383,10 @@
   <dimension ref="B3:AC194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="O21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6:N50"/>
+      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2178,8 +2181,12 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="9"/>
+      <c r="O24" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="26" t="s">
+        <v>195</v>
+      </c>
       <c r="Q24" s="17"/>
       <c r="R24" s="9"/>
       <c r="S24" s="1"/>
@@ -6207,8 +6214,10 @@
     <hyperlink ref="P38" r:id="rId107"/>
     <hyperlink ref="Q38" r:id="rId108"/>
     <hyperlink ref="R38" r:id="rId109"/>
+    <hyperlink ref="O24" r:id="rId110"/>
+    <hyperlink ref="P24" r:id="rId111"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId110"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId112"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="198">
   <si>
     <t>No</t>
   </si>
@@ -621,6 +621,12 @@
   </si>
   <si>
     <t>Bottle Drawings\17. NRW tvist X-ВКП-500-17</t>
+  </si>
+  <si>
+    <t>Eng Drawings\6. Х-КПНв.2-500-6 (Як для себе)</t>
+  </si>
+  <si>
+    <t>Eng Drawings\19. PREMIUM twist Х-ВКП-500-19.cdw</t>
   </si>
 </sst>
 </file>
@@ -1383,10 +1389,10 @@
   <dimension ref="B3:AC194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="O21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="P12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
+      <selection pane="bottomRight" activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1718,7 +1724,9 @@
       <c r="Q11" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="R11" s="26"/>
+      <c r="R11" s="26" t="s">
+        <v>196</v>
+      </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
@@ -2254,7 +2262,9 @@
       <c r="O26" s="33"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="17"/>
-      <c r="R26" s="9"/>
+      <c r="R26" s="26" t="s">
+        <v>197</v>
+      </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
@@ -6216,8 +6226,10 @@
     <hyperlink ref="R38" r:id="rId109"/>
     <hyperlink ref="O24" r:id="rId110"/>
     <hyperlink ref="P24" r:id="rId111"/>
+    <hyperlink ref="R11" r:id="rId112"/>
+    <hyperlink ref="R26" r:id="rId113"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId112"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId114"/>
 </worksheet>
 </file>
--- a/Job Data.xlsx
+++ b/Job Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="202">
   <si>
     <t>No</t>
   </si>
@@ -627,6 +627,18 @@
   </si>
   <si>
     <t>Eng Drawings\19. PREMIUM twist Х-ВКП-500-19.cdw</t>
+  </si>
+  <si>
+    <t>Maps Package\17. NRW twist X-ВКП-500-17</t>
+  </si>
+  <si>
+    <t>13. Х-КПНн-500-13 (Речицкое)</t>
+  </si>
+  <si>
+    <t>Bottle Drawings\13. Х-КПНн-500-13 (Речицкое)</t>
+  </si>
+  <si>
+    <t>Maps Package\13. Х-КПНн-500-13 (Речицкое)</t>
   </si>
 </sst>
 </file>
@@ -1389,10 +1401,10 @@
   <dimension ref="B3:AC194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="P12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="P15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R26" sqref="R26"/>
+      <selection pane="bottomRight" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1418,7 +1430,7 @@
     <row r="4" spans="2:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="36">
         <f>COUNTA($C6:$C72)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="34"/>
     </row>
@@ -1979,6 +1991,9 @@
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="28">
         <v>13</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>199</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -1992,8 +2007,12 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="17"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="17"/>
+      <c r="P18" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>201</v>
+      </c>
       <c r="R18" s="9"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2195,7 +2214,9 @@
       <c r="P24" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="Q24" s="17"/>
+      <c r="Q24" s="27" t="s">
+        <v>198</v>
+      </c>
       <c r="R24" s="9"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -6228,8 +6249,11 @@
     <hyperlink ref="P24" r:id="rId111"/>
     <hyperlink ref="R11" r:id="rId112"/>
     <hyperlink ref="R26" r:id="rId113"/>
+    <hyperlink ref="Q24" r:id="rId114"/>
+    <hyperlink ref="P18" r:id="rId115"/>
+    <hyperlink ref="Q18" r:id="rId116"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId114"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId117"/>
 </worksheet>
 </file>